--- a/data/air_bd.xlsx
+++ b/data/air_bd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frexr\PycharmProjects\AirportDirectory\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\Проекты\AirportDirectory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2883AD05-FEA4-4C69-9FC9-E7F41815E1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13494971-4534-4101-BC4C-8239FE2A1C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -64,24 +64,413 @@
     <t>img_airport</t>
   </si>
   <si>
+    <t>Шереметьево</t>
+  </si>
+  <si>
+    <t>Международный аэропорт Шереметьево им. А. С. Пушкина</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Московская обл., Химки, Международное шоссе, 1</t>
+  </si>
+  <si>
+    <t>https://www.svo.aero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шереметьево — крупнейший российский аэропорт, расположенный в 28 км от центра Москвы и в 11 км от МКАД. Каждый год услугами аэропорта пользуется свыше 14 млн авиапутешественников. </t>
+  </si>
+  <si>
+    <t>Шереметьево — крупнейший российский аэропорт, расположенный в 28 км от центра Москвы и в 11 км от МКАД. Каждый год услугами аэропорта пользуется свыше 14 млн авиапутешественников. Аэропорт имеет III А категорию ICAO, которая позволяет осуществлять полеты самолетов без ограничения по высоте и при ограниченной видимости на ВПП (не менее 200 м).
+Аэропорт имеет два сектора: Шереметьево-1 (Ш-1), обслуживающий перевозки на внутренних авиалиниях и стран СНГ, Шереметьево-2 (Ш-2), где осуществляются только международные полеты.
+12 марта 2007г. был открыт новый современный терминал С. Терминал располагается рядом с Шереметьево-1 и обслуживает регулярные и чартерные международные рейсы.
+В 2009 году первых пассажиров принял Шереметьево-3, которое соединено крыльями с Шереметьево-2 и железнодорожной станцией.</t>
+  </si>
+  <si>
+    <t>UUEE</t>
+  </si>
+  <si>
+    <t>SVO</t>
+  </si>
+  <si>
+    <t>ШРМ</t>
+  </si>
+  <si>
+    <t>55.966324</t>
+  </si>
+  <si>
+    <t>37.416573</t>
+  </si>
+  <si>
+    <t>Домодедово</t>
+  </si>
+  <si>
+    <t>Международный аэропорт Домодедово имени М. В. Ломоносова</t>
+  </si>
+  <si>
+    <t>Московская обл., Домодедово, Аэропорт, 1</t>
+  </si>
+  <si>
+    <t>https://dme.ru</t>
+  </si>
+  <si>
+    <t>Домодедово — крупнейший аэропорт Российской Федерации, расположен в г. Домодедово, Московской области. Обслуживает как внутрироссийские так и международные авиарейсы.</t>
+  </si>
+  <si>
+    <t>Домодедово — крупнейший аэропорт Российской Федерации, расположен в г. Домодедово, Московской области. Обслуживает как внутрироссийские так и международные авиарейсы. Аэропорт управляется компанией ИстЛайн. Внутренний и международный терминалы расположены в одном здании.
+Аэропортовый комплекс включает в себя лётное поле, образованное двумя независимыми параллельными взлётно-посадочными полосами (ВПП-1 и ВПП-2). Они расположены в двух километрах друг от друга, что делает Домодедово единственным аэропортом Московского авиационного узла, способным одновременно производить на своих полосах операции по взлёту и посадке. Обе ВПП сертифицированы по категории ICAO CAT IIIА. Реконструкция ВПП-1 сделала Домодедово первым российским аэропортом, имеющим возможности принимать пассажирский лайнер Airbus A380.
+Доля пассажиропотока аэропорта от общего объёма в Москве составляет 32,3 %. Рейсы из аэропорта Домодедово выполняют 30 авиакомпаний по более чем 80 направлениям для путешествий: 49 из них — по России, 22 — по странам ближнего зарубежья и 13 — по странам дальнего зарубежья. Среди уникальных для Московского авиационного узла направлений, по которым можно отправиться в путешествие только из аэропорта Домодедово: Благовещенск, Братск, Бугульма, Курган, Кызыл, Норильск, Сабетта, Тобольск, Чита, Куляб, Ленкорань, Навои, Нукус, Тамчы, Кутаиси, Аддис-Абеба, Бахрейн, Касабланка, Кувейт, Шарджа и Тель-Авив.</t>
+  </si>
+  <si>
+    <t>UUDD</t>
+  </si>
+  <si>
+    <t>DME</t>
+  </si>
+  <si>
+    <t>ДМД</t>
+  </si>
+  <si>
+    <t>55.414566</t>
+  </si>
+  <si>
+    <t>37.899494</t>
+  </si>
+  <si>
+    <t>Пулково</t>
+  </si>
+  <si>
+    <t>Международный аэропорт Пулково</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Пулковское ш., д. 41, лит. ЗА</t>
+  </si>
+  <si>
+    <t>http://www.pulkovoairport.ru</t>
+  </si>
+  <si>
+    <t>Крупнейший аэропорт Северо-Запада России, важный транспортный узел.</t>
+  </si>
+  <si>
+    <t>Пулково — крупнейший аэропорт России. В 2008 году занял четвертое место по количеству перевезенных пассажиров среди всех аэропортов России. Пассажиропоток аэропорта за 2008 год превысил 7 млн человек. Аэропорт имеет сертификат ИСО 9001:2000 и множество наград на международных и всероссийских конкурсах.
+День рождения авиапредприятие отмечает 24 июня. Именно в этот день в 1932 году был сдан в эксплуатацию аэродром «Шоссейная», получивший наименование по названию ближайшей железнодорожной станции. А 25 апреля 1973 года аэропорт получил новое и современное имя — «Пулково».
+Второй аэровокзальный комплекс «Пулково-2» был открыт в 1980 году. 
+11 апреля 1986 года аэровокзал «Пулково-2» был обновлён: справа и слева от старого здания пристроили два павильона. Ввод аэровокзального комплекса позволил обслуживать в два раза больше пассажиров международных рейсов.</t>
+  </si>
+  <si>
+    <t>ULLI</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>ПЛК</t>
+  </si>
+  <si>
+    <t>59.806084</t>
+  </si>
+  <si>
+    <t>30.3083</t>
+  </si>
+  <si>
+    <t>Сочи (Адлер)</t>
+  </si>
+  <si>
+    <t>Международный аэропорт Сочи имени В. И. Севастьянова</t>
+  </si>
+  <si>
+    <t>Адлер</t>
+  </si>
+  <si>
+    <t>Краснодарский край, Адлерский р-н, ул. Мира, 50</t>
+  </si>
+  <si>
+    <t>https://aer.aero</t>
+  </si>
+  <si>
+    <t>Международный аэропорт Со́чи  — международный аэропорт города Сочи, Краснодарский край. Крупнейший узел местных и международных авиалиний в Южном федеральном округе России.</t>
+  </si>
+  <si>
+    <t>Международный аэропорт Со́чи  — международный аэропорт города Сочи, Краснодарский край. Крупнейший узел местных и международных авиалиний в Южном федеральном округе России.
+Расположен в Адлерском районе Сочи, из-за чего также распространено название «аэропорт Адлер». Обслуживает крупнейший российский курорт, его агломерацию (включая федеральную территорию Сириус, Туапсе). Имеет статус аэропорта федерального значения.
+Аэропорт занимает в стране 5-е место по пассажирообороту (11 076 621 пассажиров) после московских Шереметьево, Домодедово, Внуково и петербургского Пулково.
+Аэродром первого класса, имеет две искусственные взлётно-посадочные полосы, сеть рулёжных дорожек общей протяжённостью 4310 м при ширине 40,5 м, перрон и места стоянок общей площадью 219 тыс. м². Особенностью аэродрома является то, что из-за наличия естественных препятствий (гор) к северу и северо-востоку от аэродрома, посадка производится только с одной стороны — со стороны моря. По этой же причине взлёт производится в строго обратном направлении.
+Аэропорт Сочи сертифицирован Авиационным регистром МАК на пригодность к международным полётам. С 2007 года годен к эксплуатации всех типов воздушных судов, в том числе: А-330 и его модификации, Боинг-747, Боинг-777 (-200, −300, −200LR, −300ER).
+Новое здание аэровокзала построено в 1989—2007 годах, площадью 65 000 м² и является одним из крупнейших в России. В конце 2013 года завершены строительство новой посадочной галереи и 10 телетрапов . Существует возможность парковки более 1000 автомобилей. Пропускная способность аэровокзального комплекса — 2 500 пасс./час. В декабре 2013 года в эксплуатацию был введён новый VIP-терминал. Площадь терминала 4 тысячи квадратных метров. Он построен рядом с основным аэропортовым комплексом. В терминале — пять помещений для деловых мероприятий и встреч.</t>
+  </si>
+  <si>
+    <t>URSS</t>
+  </si>
+  <si>
+    <t>AER</t>
+  </si>
+  <si>
+    <t>АДЛ</t>
+  </si>
+  <si>
+    <t>43.44884</t>
+  </si>
+  <si>
+    <t>39.941105</t>
+  </si>
+  <si>
+    <t>Кольцово (Екатеринбург)</t>
+  </si>
+  <si>
+    <t>Аэропорт «Кольцово» имени А. Н. Демидова</t>
+  </si>
+  <si>
+    <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>Свердловская обл., г. Екатеринбург, ул. Бахчиванджи, 1</t>
+  </si>
+  <si>
+    <t>https://svx.aero</t>
+  </si>
+  <si>
+    <t>Крупнейший аэропорт Урала, важный транспортный узел между Европой и Азией</t>
+  </si>
+  <si>
+    <t>Аэропорт «Кольцово» имени А. Н. Демидова — международный аэропорт Екатеринбурга с аэродромом класса «Б», расположенный в микрорайоне Кольцово Октябрьского района, что в 16 километрах к юго-востоку от центра города и в девяти километрах к северу от города Арамиль. Обслуживает как сам Екатеринбург, так прилежащие к нему районы Свердловской области. Имеет статус аэропорта федерального значения.
+На протяжении 10 лет (до 2015 года) являлся пятым по объёму годового пассажиропотока аэропортом России, в настоящее время занимает седьмое место по этому показателю. Так, за 2020 год аэропорт Кольцово обслужил около 3,5 млн человек. Грузопоток аэропорта за 2016 год превысил 27,6 тысяч тонн груза и почты.
+В аэропорту расположена главная техническая база и штаб-квартира российской авиакомпании «Уральские авиалинии», для которой Кольцово является и главным хабом.
+Аэродром Кольцово первого класса имеет две ВПП, 72 стоянки для самолётов, а также допуск на приём всех (кроме Airbus A380) современных типов воздушных судов российского и зарубежного производства, включая Ил-96, Airbus A330, Airbus A340, Airbus A350, Boeing 777, Boeing 787.
+В 2006 открыт новый международный терминал. В октябре 2007 введён в строй новый терминал внутренних авиалиний. На месте старого терминала в 2009 году возведён новый внутренний терминал, а прежний объединён с международным терминалом. В результате, аэропорт стал одним из самых современных в России. После ввода в эксплуатацию нового терминала пропускная способность аэропорта приблизилась к 8 миллионам 400 тысячам пассажиров в год. В составе аэропорта современная гостиница, терминал деловой авиации.</t>
+  </si>
+  <si>
+    <t>USSS</t>
+  </si>
+  <si>
+    <t>SVX</t>
+  </si>
+  <si>
+    <t>КЛЦ</t>
+  </si>
+  <si>
+    <t>56.750336</t>
+  </si>
+  <si>
+    <t>60.804314</t>
+  </si>
+  <si>
+    <t>Толмачёво (Новосибирск)</t>
+  </si>
+  <si>
+    <t>Международный аэропо́рт Новосибирск (Толмачёво) имени А. И. Покрышкина</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Новосибирская область, город Обь-4, аэропорт Толмачево.</t>
+  </si>
+  <si>
+    <t>http://tolmachevo.ru</t>
+  </si>
+  <si>
+    <t>Аэропорт Толмачёво находится в России и обслуживает г. Новосибирск. Толмачёво расположен в 17 км от центра города. В аэропорту Толмачёво (Tolmachevo) работают 2 терминала. В этот аэропорт прилетают как регулярные рейсы 32 авиакомпаний, так и чартеры. Город Новосибирск не располагает другими аэропортами.</t>
+  </si>
+  <si>
+    <t>Междунаро́дный аэропо́рт Новосиби́рск (Толмачёво) имени А. И. Покры́шкина — международный аэропорт, обслуживающий Новосибирск, расположен в городе Обь Новосибирской области, в 17 км от Новосибирска. Крупнейший за Уралом по пассажиропотоку. Аэропорт находится на пересечении большого числа воздушных линий, идущих из Юго-Восточной Азии в Европу и из Северной Америки в Индию и Азию. Регулярными пассажирскими рейсами аэропорт связан со многими крупнейшими городами России и стран СНГ, а также с ОАЭ, Турцией, Тунисом, Танзанией, Болгарией, Германией, Испанией, Италией, Индией, Индонезией, Японией, Китаем, Южной Кореей, Чехией, Грецией, Кипром, Вьетнамом и Таиландом.
+Аэропорт Толмачёво имеет платиновый сертификат IATA, подтверждающий 100%-е внедрение инновационной технологии по упрощению аэропортовых формальностей BCBP, Толмачёво — четвёртый аэропорт в России после Домодедово, Шереметьево и Пулково, полностью внедривший технологию BCBP (кодирование посадочных талонов с использованием двумерных штрихкодов — Bar coded boarding passes).
+Был открыт в 1957 году, а в 1992 году аэропорту был присвоен статус международного. В 2004 году одержал победу в конкурсе "Лучший аэропорт России и СНГ". Сегодня аэропорт относится к классу А и может принимать все виды воздушных судов.
+Аэропорт является узловым для S7 Airlines.</t>
+  </si>
+  <si>
+    <t>UNNT</t>
+  </si>
+  <si>
+    <t>OVB</t>
+  </si>
+  <si>
+    <t>ТЛЧ</t>
+  </si>
+  <si>
+    <t>55.00901</t>
+  </si>
+  <si>
+    <t>82.667</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону (Платов)</t>
+  </si>
+  <si>
+    <t>Международный аэропорт Ростова-на-Дону «Платов»</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>Ростовская область, Аксайский район, аэропорт Платов</t>
+  </si>
+  <si>
+    <t>https://rov.aero</t>
+  </si>
+  <si>
+    <t>Аэропорт Пла́тов  — международный аэропорт Ростова-на-Дону, преемник старого аэропорта на проспекте Шолохова. Расположен в 29 километрах к северо-востоку от Ростова-на-Дону в Аксайском районе Ростовской области, в 15 км к северо-западу от города Новочеркасска (в 4 км к северу от станицы Грушевской, вблизи федеральной автотрассы М-4). Назван в честь казачьего атамана Матвея Платова.</t>
+  </si>
+  <si>
+    <t>Аэропорт Пла́тов  — международный аэропорт Ростова-на-Дону, преемник старого аэропорта на проспекте Шолохова. Расположен в 29 километрах к северо-востоку от Ростова-на-Дону в Аксайском районе Ростовской области, в 15 км к северо-западу от города Новочеркасска (в 4 км к северу от станицы Грушевской, вблизи федеральной автотрассы М-4). Назван в честь казачьего атамана Матвея Платова.
+Новый аэропорт Ростова построен в рамках подготовки к чемпионату мира по футболу 2018 года. Первый в современной истории России построенный с нуля крупный аэропорт, третий по пассажирообороту (после Сочи и Краснодара) в Южном федеральном округе. Для регулярных рейсов аэропорт открыт с 7 декабря 2017 года.
+Аэродром допущен к приёму самолётов Airbus A310, Airbus A319, Airbus A320, Airbus A321, Airbus A330, Boeing 737, Boeing 747, Boeing 757, Boeing 767, Вoeing-777, CRJ, Ан-124, Ил-62, Ил-76, Ту-154, Ту-204 и всех более лёгких, а также вертолётов всех типов. Классификационное число ВПП (PCN) 57/R/A/W/T, ИВПП оборудована по II категории ИКАО.
+В феврале 2019 года аэропорт получил рейтинг 5 звёзд по итогам аудита, проведённого экспертами авторитетной международной рейтинговой организации Skytrax (Великобритания). Такой оценки российский аэропорт удостоен впервые за все время существования рейтинга с 1989 года. В 2019 году аэропорт показал наибольший отток пассажиропотока среди 30 крупнейших аэропортов России, эксперты называют причиной данного падения высокие тарифы аэропорта на обслуживание авиакомпаний.</t>
+  </si>
+  <si>
+    <t>URRP</t>
+  </si>
+  <si>
+    <t>ROV</t>
+  </si>
+  <si>
+    <t>РОВ</t>
+  </si>
+  <si>
+    <t>47.49417</t>
+  </si>
+  <si>
+    <t>39.92472</t>
+  </si>
+  <si>
     <t>https://www.aviasales.ru/airports/sheremetevo</t>
   </si>
   <si>
+    <t>sheremetevo.jpg</t>
+  </si>
+  <si>
+    <t>domodedovo.jpg</t>
+  </si>
+  <si>
+    <t>sochi.jpg</t>
+  </si>
+  <si>
+    <t>kolcovo.jpg</t>
+  </si>
+  <si>
+    <t>tolmacheva.jpg</t>
+  </si>
+  <si>
+    <t>platov.jpg</t>
+  </si>
+  <si>
+    <t>sheremetevo.webp</t>
+  </si>
+  <si>
+    <t>Внуково</t>
+  </si>
+  <si>
+    <t>VKO</t>
+  </si>
+  <si>
+    <t>UUWW</t>
+  </si>
+  <si>
+    <t>https://www.vnukovo.ru/</t>
+  </si>
+  <si>
+    <t>ВНК</t>
+  </si>
+  <si>
+    <r>
+      <t>Международный аэропорт Внуково имени </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>А. Н. Туполева</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Внуково — старейшее из ныне действующих авиапредприятий московского авиационного узла и один из крупнейших авиатранспортных комплексов России. Маршрутная сеть аэропорта охватывает всю территорию России, а также страны ближнего и дальнего зарубежья. Международный аэропорт Внуково в 2019 году побил исторический рекорд и обслужил свыше 24 млн пассажиров.
+Международный аэропорт Внуково — самый близкий к центру столицы и единственный аэропорт, расположенный на территории Москвы.
+Аэродромный комплекс Внуково располагает двумя современными взлетно-посадочными полосами, длиной 3 500 и 3 060 м, аэродромная пропускная способность составляет 58 взлетно-посадочных операций в час. Аэровокзальный комплекс Внуково общей площадью около 300 тыс. кв. м способен обеспечить пропускную способность до 35 млн пассажиров в год.
+Аэропорт состоит из трёх пассажирских терминалов и грузового терминала «Внуково-Карго». Основной пассажирский комплекс «Внуково-1» состоит из терминалов «A», «B» и «D». Комплекс «Внуково-2» используется для обслуживания спецрейсов высших руководителей России (в том числе президента и председателя Правительства), а также руководителей других стран. Терминалы «Внуково-3» обслуживают рейсы бизнес-авиации, спецрейсов правительства Москвы и авиации Роскосмоса.
+Аэропорту присвоен третий (наивысший) уровень координации по классификации IATA.
+23 марта 2012 года в аэропорту состоялся презентационный прилёт крупнейшего в мире пассажирского авиалайнера Airbus А380 авиакомпании Lufthansa, а 9 апреля — пассажирского самолёта Boeing 787 Dreamliner.
+</t>
+  </si>
+  <si>
+    <t>Международный аэропорт Внуково — самый близкий к центру столицы и единственный аэропорт, расположенный на территории Москвы. Один из крупнейших авиатранспортных комплексов России.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Московская область, посёлок Внуково, улица 2-я Рейсовая, 2</t>
+  </si>
+  <si>
+    <t>55.5996</t>
+  </si>
+  <si>
+    <t>37.2712</t>
+  </si>
+  <si>
+    <t>vnukovo.jpg</t>
+  </si>
+  <si>
+    <t>vnukovo.webp</t>
+  </si>
+  <si>
+    <t>Europe/Moscow</t>
+  </si>
+  <si>
+    <t>Asia/Yekaterinburg</t>
+  </si>
+  <si>
+    <t>Asia/Novosibirsk</t>
+  </si>
+  <si>
     <t>time_zone</t>
   </si>
   <si>
+    <t>https://www.svo.aero/ru/departure/timetable</t>
+  </si>
+  <si>
     <t>online_tablo</t>
+  </si>
+  <si>
+    <t>https://www.vnukovo.ru/ru/for-passengers/reysi/online-tablo</t>
+  </si>
+  <si>
+    <t>https://www.dme.ru/flight/live-board/</t>
+  </si>
+  <si>
+    <t>https://ar-rov.ru/board/</t>
+  </si>
+  <si>
+    <t>https://aer.aero/flights/online-schedule/</t>
+  </si>
+  <si>
+    <t>https://ar-svx.ru/board/</t>
+  </si>
+  <si>
+    <t>https://tolmachevo.ru/passengers/information/timetable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,31 +555,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -423,28 +812,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1"/>
-    <col min="2" max="2" width="21.453125"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
-    <col min="4" max="4" width="45.90625" bestFit="1"/>
-    <col min="5" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" bestFit="1"/>
-    <col min="12" max="12" width="10.36328125" customWidth="1"/>
-    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1"/>
+    <col min="2" max="2" width="21.44140625"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" bestFit="1"/>
+    <col min="5" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,159 +877,430 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="8"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="2"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="2"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="2"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="2"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="2"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="2"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A26" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="P2" r:id="rId9" xr:uid="{540F9E2E-CA77-4988-B1B1-557E6D1E6A06}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/data/air_bd.xlsx
+++ b/data/air_bd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\Проекты\AirportDirectory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frexr\PycharmProjects\AirportDirectory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13494971-4534-4101-BC4C-8239FE2A1C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065B4D9A-EE3E-4F8A-9E25-C69A7D9F9C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
   <si>
     <t>name</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>https://tolmachevo.ru/passengers/information/timetable</t>
+  </si>
+  <si>
+    <t>platov.webp</t>
+  </si>
+  <si>
+    <t>pulkovo.jpg</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -812,28 +818,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1"/>
-    <col min="2" max="2" width="21.44140625"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="45.88671875" bestFit="1"/>
-    <col min="5" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1"/>
+    <col min="2" max="2" width="21.453125"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="45.90625" bestFit="1"/>
+    <col min="5" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1"/>
+    <col min="12" max="12" width="10.36328125" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +889,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -933,7 +939,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -983,7 +989,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1071,10 +1077,10 @@
         <v>48</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>118</v>
@@ -1083,7 +1089,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>96</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>103</v>
@@ -1283,7 +1289,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>97</v>
       </c>

--- a/data/air_bd.xlsx
+++ b/data/air_bd.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frexr\PycharmProjects\AirportDirectory\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B55125-90B2-4F10-AF8D-8D4D3EC236C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$P$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$P$29</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t>name</t>
   </si>
@@ -76,13 +70,13 @@
     <t>Шереметьево</t>
   </si>
   <si>
-    <t>Международный аэропорт Шереметьево имени А.С. Пушкина</t>
+    <t xml:space="preserve">Международный аэропорт Шереметьево имени А.С. Пушкина</t>
   </si>
   <si>
     <t>Москва</t>
   </si>
   <si>
-    <t>Московская область, г. Химки, Международное шоссе, 1</t>
+    <t xml:space="preserve">Московская область, г. Химки, Международное шоссе, 1</t>
   </si>
   <si>
     <t>https://www.svo.aero</t>
@@ -91,6 +85,12 @@
     <t xml:space="preserve">Международный аэропорт Шереметьево — крупнейший аэропорт Российской Федерации, расположенный в 28 км от центра Москвы и в 11 км от МКАД. Каждый год услугами аэропорта пользуется свыше 14 млн авиапутешественников. </t>
   </si>
   <si>
+    <t xml:space="preserve">Шереметьево — крупнейший российский аэропорт, расположенный в 28 км от центра Москвы и в 11 км от МКАД. Каждый год услугами аэропорта пользуется свыше 14 млн авиапутешественников. Аэропорт имеет III А категорию ICAO, которая позволяет осуществлять полеты самолетов без ограничения по высоте и при ограниченной видимости на ВПП (не менее 200 м).
+Аэропорт имеет два сектора: Шереметьево-1 (Ш-1), обслуживающий перевозки на внутренних авиалиниях и стран СНГ, Шереметьево-2 (Ш-2), где осуществляются только международные полеты.
+12 марта 2007г. был открыт новый современный терминал С. Терминал располагается рядом с Шереметьево-1 и обслуживает регулярные и чартерные международные рейсы.
+В 2009 году первых пассажиров принял Шереметьево-3, которое соединено крыльями с Шереметьево-2 и железнодорожной станцией.</t>
+  </si>
+  <si>
     <t>UUEE</t>
   </si>
   <si>
@@ -121,16 +121,22 @@
     <t>Внуково</t>
   </si>
   <si>
-    <t>Международный аэропорт Внуково имени А.Н. Туполева</t>
-  </si>
-  <si>
-    <t>Московская область, пос. Внуково, ул. 2-я Рейсовая, 2</t>
+    <t xml:space="preserve">Международный аэропорт Внуково имени А.Н. Туполева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московская область, пос. Внуково, ул. 2-я Рейсовая, 2</t>
   </si>
   <si>
     <t>https://www.vnukovo.ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Внуково — самый близкий к центру столицы и единственный аэропорт, расположенный на территории Москвы. Один из крупнейших авиатранспортных комплексов России.</t>
+    <t xml:space="preserve">Международный аэропорт Внуково — самый близкий к центру столицы и единственный аэропорт, расположенный на территории Москвы. Один из крупнейших авиатранспортных комплексов России.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Внуково — старейшее из ныне действующих авиапредприятий московского авиационного узла и один из крупнейших авиатранспортных комплексов России. 
+Маршрутная сеть аэропорта охватывает всю территорию России, а также страны ближнего и дальнего зарубежья. В 2019 году аэропорт побил исторический рекорд и обслужил свыше 24 млн пассажиров.
+Аэродромный комплекс Внуково располагает двумя современными взлетно-посадочными полосами, длиной 3 500 и 3 060 м, аэродромная пропускная способность составляет 58 взлетно-посадочных операций в час. Аэровокзальный комплекс Внуково общей площадью около 300 тыс. кв. м способен обеспечить пропускную способность до 35 млн пассажиров в год.Аэропорт состоит из трёх пассажирских терминалов и грузового терминала «Внуково-Карго». Основной пассажирский комплекс «Внуково-1» состоит из терминалов «A», «B» и «D». Комплекс «Внуково-2» используется для обслуживания спецрейсов высших руководителей России (в том числе президента и председателя Правительства), а также руководителей других стран. Терминалы «Внуково-3» обслуживают рейсы бизнес-авиации, спецрейсов правительства Москвы и авиации Роскосмоса.
+Аэропорту присвоен третий (наивысший) уровень координации по классификации IATA.23 марта 2012 года в аэропорту состоялся презентационный прилёт крупнейшего в мире пассажирского авиалайнера Airbus А380 авиакомпании Lufthansa, а 9 апреля — пассажирского самолёта Boeing 787 Dreamliner.</t>
   </si>
   <si>
     <t>UUWW</t>
@@ -160,19 +166,19 @@
     <t>Домодедово</t>
   </si>
   <si>
-    <t>Международный аэропорт Домодедово имени М.В. Ломоносова</t>
-  </si>
-  <si>
-    <t>Московская область, г. Домодедово, Аэропорт, 1</t>
+    <t xml:space="preserve">Международный аэропорт Домодедово имени М.В. Ломоносова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московская область, г. Домодедово, Аэропорт, 1</t>
   </si>
   <si>
     <t>https://dme.ru</t>
   </si>
   <si>
-    <t>Международный аэропорт Домодедово — крупнейший аэропорт Российской Федерации, расположен в г. Домодедово, Московской области. Обслуживает как внутрироссийские так и международные авиарейсы.</t>
-  </si>
-  <si>
-    <t>Домодедово — крупнейший аэропорт Российской Федерации ,обслуживает как внутрироссийские так и международные авиарейсы. Внутренний и международный терминалы расположены в одном здании.
+    <t xml:space="preserve">Международный аэропорт Домодедово — крупнейший аэропорт Российской Федерации, расположен в г. Домодедово, Московской области. Обслуживает как внутрироссийские так и международные авиарейсы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Домодедово — крупнейший аэропорт Российской Федерации ,обслуживает как внутрироссийские так и международные авиарейсы. Внутренний и международный терминалы расположены в одном здании.
 Аэропортовый комплекс включает в себя лётное поле, образованное двумя независимыми параллельными взлётно-посадочными полосами (ВПП-1 и ВПП-2). Они расположены в двух километрах друг от друга, что делает Домодедово единственным аэропортом Московского авиационного узла, способным одновременно производить на своих полосах операции по взлёту и посадке. Обе ВПП сертифицированы по категории ICAO CAT IIIА. Реконструкция ВПП-1 сделала Домодедово первым российским аэропортом, имеющим возможности принимать пассажирский лайнер Airbus A380.
 Доля пассажиропотока аэропорта от общего объёма в Москве составляет 32,3 %. Рейсы из аэропорта Домодедово выполняют 30 авиакомпаний по более чем 80 направлениям для путешествий: 49 из них — по России, 22 — по странам ближнего зарубежья и 13 — по странам дальнего зарубежья. Среди уникальных для Московского авиационного узла направлений, по которым можно отправиться в путешествие только из аэропорта Домодедово: Благовещенск, Братск, Бугульма, Курган, Кызыл, Норильск, Сабетта, Тобольск, Чита, Куляб, Ленкорань, Навои, Нукус, Тамчы, Кутаиси, Аддис-Абеба, Бахрейн, Касабланка, Кувейт, Шарджа и Тель-Авив.</t>
   </si>
@@ -201,19 +207,19 @@
     <t>Жуковский</t>
   </si>
   <si>
-    <t>Международный аэропорт Жуковский</t>
-  </si>
-  <si>
-    <t>Московская область, г. Жуковский, ул. Наркомвод, 3.</t>
+    <t xml:space="preserve">Международный аэропорт Жуковский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московская область, г. Жуковский, ул. Наркомвод, 3.</t>
   </si>
   <si>
     <t>https://zia.aero/</t>
   </si>
   <si>
-    <t>Международный аэропорт Жуковский — аэропорт федерального значения Московской области. Расположен на экспериментальном аэродроме Раменское лётно-исследовательского института им.М.М. Громова, в 36 километрах от центра Москвы.</t>
-  </si>
-  <si>
-    <t>Жуковский является одним из самых молодых аэропортов в московском регионе. Распоряжением Правительства РФ от 15 марта 2016 года № 432-р аэропорт Раменское был открыт для выполнения международных полётов, а 30 мая 2016 года состоялось его официальное открытие.
+    <t xml:space="preserve">Международный аэропорт Жуковский — аэропорт федерального значения Московской области. Расположен на экспериментальном аэродроме Раменское лётно-исследовательского института им.М.М. Громова, в 36 километрах от центра Москвы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жуковский является одним из самых молодых аэропортов в московском регионе. Распоряжением Правительства РФ от 15 марта 2016 года № 432-р аэропорт Раменское был открыт для выполнения международных полётов, а 30 мая 2016 года состоялось его официальное открытие.
 Первоначально будущий аэропорт должен был носить название Раменское. Это связано с его расположением на аэродроме Раменское. Предпосылки к последующему переименованию появились в 2007 году, когда администрация города Жуковского, где располагается аэропорт, выступила с инициативой об изменении его названия. 11 ноября 2017 года название Жуковский было официально присвоено аэропорту распоряжением Правительства РФ, при этом в государственном реестре аэродромов и вертодромов гражданской авиации РФ аэродром по-прежнему имеет наименование Раменское.
 Аэропорт использует взлётно-посадочную полосу ЛИИ им. М.М. Громова и способен принимать любые типы воздушных судов без ограничения взлётной массы, включая Airbus A380.
 Основная взлётно-посадочная полоса длиной 5,4 км является самой длинной не только в России, но и в Европе и третьей по длине в мире.</t>
@@ -243,22 +249,22 @@
     <t>Пулково</t>
   </si>
   <si>
-    <t>Международный аэропорт Пулково</t>
+    <t xml:space="preserve">Международный аэропорт Пулково</t>
   </si>
   <si>
     <t>Санкт-Петербург</t>
   </si>
   <si>
-    <t>г. Санкт-Петербург, Пулковское шоссе, д. 41, лит. ЗА</t>
+    <t xml:space="preserve">г. Санкт-Петербург, Пулковское шоссе, д. 41, лит. ЗА</t>
   </si>
   <si>
     <t>http://www.pulkovoairport.ru</t>
   </si>
   <si>
-    <t>Международный аэропорт Пулково — крупнейший аэропорт Северо-Запада России, имеющий статус федерального значения, располагающийся в 15 км от центра Санкт-Петербурга в Московском районе.</t>
-  </si>
-  <si>
-    <t>Пулково — крупнейший аэропорт России,  занимает четвертое место по количеству перевезенных пассажиров среди всех аэропортов России. Пропускная способность около 18 миллионов пассажиров в год. Аэропорт имеет сертификат ИСО 9001:2000 и множество наград на международных и всероссийских конкурсах.
+    <t xml:space="preserve">Международный аэропорт Пулково — крупнейший аэропорт Северо-Запада России, имеющий статус федерального значения, располагающийся в 15 км от центра Санкт-Петербурга в Московском районе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пулково — крупнейший аэропорт России,  занимает четвертое место по количеству перевезенных пассажиров среди всех аэропортов России. Пропускная способность около 18 миллионов пассажиров в год. Аэропорт имеет сертификат ИСО 9001:2000 и множество наград на международных и всероссийских конкурсах.
 Аэродром имеет две параллельные независимые  взлетно-посадочные полосы (южная - 3 780 м, северная - 3390 м). Класс аэродрома А, допускает выполнение операций взлета и посадки независимо от метеоусловий.
 На территории  аэропорта расположено три терминала:
 Пулково - 1. Обслуживает внутрироссийские и некоторые международные авиарейсы (из-за своей конструкции носит шуточное название «Пять стаканов»).
@@ -291,22 +297,22 @@
     <t>Сочи</t>
   </si>
   <si>
-    <t>Международный аэропорт Сочи имени В. И. Севастьянова</t>
+    <t xml:space="preserve">Международный аэропорт Сочи имени В. И. Севастьянова</t>
   </si>
   <si>
     <t>Адлер</t>
   </si>
   <si>
-    <t>Краснодарский край, Адлерский р-н, ул. Мира, 50</t>
+    <t xml:space="preserve">Краснодарский край, Адлерский р-н, ул. Мира, 50</t>
   </si>
   <si>
     <t>https://aer.aero</t>
   </si>
   <si>
-    <t>Международный аэропорт Сочи имени В.И. Севастьянова  — аэропорт города Сочи, Краснодарский край. Крупнейший узел местных и международных авиалиний в Южном федеральном округе России, расположен в Адлеровском районе города в 30 км от центра Сочи.</t>
-  </si>
-  <si>
-    <t>Аэропорт Сочи  — крупнейший аэропорт юга России. Расположен в Адлерском районе города Сочи, из-за чего также распространено название «аэропорт Адлер». Обслуживает крупнейший российский курорт, его агломерацию (включая федеральную территорию Сириус, Туапсе). Имеет статус аэропорта федерального значения.
+    <t xml:space="preserve">Международный аэропорт Сочи имени В.И. Севастьянова  — аэропорт города Сочи, Краснодарский край. Крупнейший узел местных и международных авиалиний в Южном федеральном округе России, расположен в Адлеровском районе города в 30 км от центра Сочи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Сочи  — крупнейший аэропорт юга России. Расположен в Адлерском районе города Сочи, из-за чего также распространено название «аэропорт Адлер». Обслуживает крупнейший российский курорт, его агломерацию (включая федеральную территорию Сириус, Туапсе). Имеет статус аэропорта федерального значения.
 Аэропорт занимает в стране 5-е место по пассажирообороту (11 076 621 пассажиров в год) после московских Шереметьево, Домодедово, Внуково и петербургского Пулково.Аэродром первого класса, имеет две искусственные взлётно-посадочные полосы, сеть рулёжных дорожек общей протяжённостью 4310 м при ширине 40,5 м, перрон и места стоянок общей площадью 219 тыс. м². Особенностью аэродрома является то, что из-за наличия естественных препятствий (гор) к северу и северо-востоку от аэродрома, посадка производится только с одной стороны — со стороны моря. По этой же причине взлёт производится в строго обратном направлении.
 Аэропорт Сочи сертифицирован Авиационным регистром МАК на пригодность к международным полётам. С 2007 года годен к эксплуатации всех типов воздушных судов, в том числе: А-330 и его модификации, Боинг-747, Боинг-777 (-200, −300, −200LR, −300ER).</t>
   </si>
@@ -332,25 +338,25 @@
     <t>https://aer.aero/flights/online-schedule/</t>
   </si>
   <si>
-    <t>Кольцово (Екатеринбург)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт «Кольцово» имени А.Н. Демидова</t>
+    <t xml:space="preserve">Кольцово (Екатеринбург)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт «Кольцово» имени А.Н. Демидова</t>
   </si>
   <si>
     <t>Екатеринбург</t>
   </si>
   <si>
-    <t>Свердловская область, г. Екатеринбург, ул. Бахчиванджи, 1</t>
+    <t xml:space="preserve">Свердловская область, г. Екатеринбург, ул. Бахчиванджи, 1</t>
   </si>
   <si>
     <t>https://svx.aero</t>
   </si>
   <si>
-    <t>Международный аэропорт «Кольцово» имени А. Н. Демидова — крупнейший аэропорт Урала, расположенный в микрорайоне Кольцово Октябрьского района, в 16 километрах к юго-востоку от центра города Екатеринбург и в девяти километрах к северу от города Арамиль.</t>
-  </si>
-  <si>
-    <t>Аэропорт «Кольцово» имени А. Н. Демидова — крупнейший аэропорт Урала, важный транспортный узел между Европой и Азией. Обслуживает как сам Екатеринбург, так прилежащие к нему районы Свердловской области. Имеет статус аэропорта федерального значения.
+    <t xml:space="preserve">Международный аэропорт «Кольцово» имени А. Н. Демидова — крупнейший аэропорт Урала, расположенный в микрорайоне Кольцово Октябрьского района, в 16 километрах к юго-востоку от центра города Екатеринбург и в девяти километрах к северу от города Арамиль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт «Кольцово» имени А. Н. Демидова — крупнейший аэропорт Урала, важный транспортный узел между Европой и Азией. Обслуживает как сам Екатеринбург, так прилежащие к нему районы Свердловской области. Имеет статус аэропорта федерального значения.
 На протяжении 10 лет (до 2015 года) являлся пятым по объёму годового пассажиропотока аэропортом России, в настоящее время занимает седьмое место по этому показателю. Более 120 направлений: регулярные рейсы по России, ближнему и дальнему зарубежью.
 В аэропорту расположена главная техническая база и штаб-квартира российской авиакомпании «Уральские авиалинии», для которой Кольцово является и главным хабом. Аэродром Кольцово первого класса имеет две взлетно-посадочные полосы, 72 стоянки для самолётов, а также допуск на приём всех (кроме Airbus A380) современных типов воздушных судов российского и зарубежного производства, включая Ил-96, Airbus A330, Airbus A340, Airbus A350, Boeing 777, Boeing 787.
 В 2006 открыт новый международный терминал. В октябре 2007 введён в строй новый терминал внутренних авиалиний. На месте старого терминала в 2009 году возведён новый внутренний терминал, а прежний объединён с международным терминалом. В результате, аэропорт стал одним из самых современных в России. После ввода в эксплуатацию нового терминала пропускная способность аэропорта приблизилась к 8 миллионам 400 тысячам пассажиров в год. В составе аэропорта современная гостиница, терминал деловой авиации.</t>
@@ -380,25 +386,25 @@
     <t>https://ar-svx.ru/board/</t>
   </si>
   <si>
-    <t>Толмачёво (Новосибирск)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Новосибирск (Толмачёво) имени А.И. Покрышкина</t>
+    <t xml:space="preserve">Толмачёво (Новосибирск)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Новосибирск (Толмачёво) имени А.И. Покрышкина</t>
   </si>
   <si>
     <t>Новосибирск</t>
   </si>
   <si>
-    <t>Новосибирская область, г. Обь-4, аэропорт Толмачево.</t>
+    <t xml:space="preserve">Новосибирская область, г. Обь-4, аэропорт Толмачево.</t>
   </si>
   <si>
     <t>http://tolmachevo.ru</t>
   </si>
   <si>
-    <t>Международный аэропорт Новосибирск (Толмачёво) имени А.И. Покрышкина — крупнейший за Уралом по пассажиропотоку аэропорт Российской Федерации. Расположен в городе Обь Новосибирской области, в 17 км к западу от центра Новосибирска.</t>
-  </si>
-  <si>
-    <t>Аэропорт Толмачёво обслуживает как региональные, так и международные маршруты. Он находится на пересечении большого числа воздушных линий, идущих из Юго-Восточной Азии в Европу. Регулярными пассажирскими рейсами аэропорт связан со многими крупнейшими городами России и стран СНГ, а также с ОАЭ, Турцией, Китаем, Индией, Вьетнамом и Таиландом. Являлся важным пунктом кроссполярных маршрутов из Северной Америки в Азию.
+    <t xml:space="preserve">Международный аэропорт Новосибирск (Толмачёво) имени А.И. Покрышкина — крупнейший за Уралом по пассажиропотоку аэропорт Российской Федерации. Расположен в городе Обь Новосибирской области, в 17 км к западу от центра Новосибирска.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Толмачёво обслуживает как региональные, так и международные маршруты. Он находится на пересечении большого числа воздушных линий, идущих из Юго-Восточной Азии в Европу. Регулярными пассажирскими рейсами аэропорт связан со многими крупнейшими городами России и стран СНГ, а также с ОАЭ, Турцией, Китаем, Индией, Вьетнамом и Таиландом. Являлся важным пунктом кроссполярных маршрутов из Северной Америки в Азию.
 В аэропорту  работают 2 терминала (терминал А – для внутренних рейсов, терминал Б – для международных рейсов). 
 Аэродром имеет две взлетно-посадочные полосы длинной 3 597 м и 3 602 м. Класс аэродрома А – обслуживает все типы воздушных судов, включая самые тяжелые и крупные (Ил-96, Boeing 777, Airbus A380 и др.). Один из немногих аэропортов азиатской части России с взлетно-посадочной полосой II категории ИКАО.
 Аэропорт является узловым для S7 Airlines.</t>
@@ -428,25 +434,25 @@
     <t>https://tolmachevo.ru/passengers/information/timetable</t>
   </si>
   <si>
-    <t>Ростов-на-Дону (Платов)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Ростова-на-Дону «Платов»</t>
+    <t xml:space="preserve">Ростов-на-Дону (Платов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Ростова-на-Дону «Платов»</t>
   </si>
   <si>
     <t>Ростов-на-Дону</t>
   </si>
   <si>
-    <t>Ростовская область, Аксайский район, аэропорт Платов</t>
+    <t xml:space="preserve">Ростовская область, Аксайский район, аэропорт Платов</t>
   </si>
   <si>
     <t>https://rov.aero</t>
   </si>
   <si>
-    <t>Международный аэропорт Ростова-на-Дону «Платов»  —  третий по пассажирообороту (после Сочи и Краснодара) в Южном федеральном округе. Расположен в 29 километрах к северо-востоку от Ростова-на-Дону.</t>
-  </si>
-  <si>
-    <t>Аэропорт «Платов»  преемник старого аэропорта на проспекте Шолохова. Расположен в 29 километрах к северо-востоку от Ростова-на-Дону в Аксайском районе Ростовской области, в 15 км к северо-западу от города Новочеркасска (в 4 км к северу от станицы Грушевской, вблизи федеральной автотрассы М-4). Назван в честь казачьего атамана Матвея Платова.
+    <t xml:space="preserve">Международный аэропорт Ростова-на-Дону «Платов»  —  третий по пассажирообороту (после Сочи и Краснодара) в Южном федеральном округе. Расположен в 29 километрах к северо-востоку от Ростова-на-Дону.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт «Платов»  преемник старого аэропорта на проспекте Шолохова. Расположен в 29 километрах к северо-востоку от Ростова-на-Дону в Аксайском районе Ростовской области, в 15 км к северо-западу от города Новочеркасска (в 4 км к северу от станицы Грушевской, вблизи федеральной автотрассы М-4). Назван в честь казачьего атамана Матвея Платова.
 Новый аэропорт Ростова построен в рамках подготовки к чемпионату мира по футболу 2018 года. Первый в современной истории России построенный с нуля крупный аэропорт, третий по пассажирообороту (после Сочи и Краснодара) в Южном федеральном округе. Для регулярных рейсов аэропорт открыт с 7 декабря 2017 года. Пропускная способность до 2000 пассажиров в час.
 Аэродром допущен к приёму крупных самолётов, включая Airbus A310, Airbus A319, Airbus A320, Airbus A321, Airbus A330, Boeing 737, Boeing 747, Boeing 757, Boeing 767, Вoeing-777, CRJ, Ан-124, Ил-62, Ил-76, Ту-154, Ту-204 и всех более лёгких, а также вертолётов всех типов. Классификационное число ВПП (PCN) 57/R/A/W/T, ИВПП оборудована по II категории ИКАО.
 В 2019 году аэропорт получил высшую -  5 звёздочную оценку по рейтингу международной рейтинговой организации Skytrax (Великобритания). Такой оценки российский аэропорт удостоен впервые за все время существования рейтинга.</t>
@@ -476,25 +482,25 @@
     <t>https://ar-rov.ru/board/</t>
   </si>
   <si>
-    <t>Анапа (Витязево)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Анапа (Витязево) имени В.К. Коккинаки</t>
+    <t xml:space="preserve">Анапа (Витязево)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Анапа (Витязево) имени В.К. Коккинаки</t>
   </si>
   <si>
     <t>Витязево</t>
   </si>
   <si>
-    <t>Краснодарский край, муниципальный округ Анапа, аэропорт Анапа (Витязево) имени В.К. Коккинаки</t>
+    <t xml:space="preserve">Краснодарский край, муниципальный округ Анапа, аэропорт Анапа (Витязево) имени В.К. Коккинаки</t>
   </si>
   <si>
     <t>https://aaq.aero</t>
   </si>
   <si>
-    <t>Международный аэропорт Анапа (Витязево) имени В.К. Коккинаки — аэропорт федерального значения. Расположен в 5 км северо-восточнее железнодорожной станции Анапа, в 4 км восточнее села Витязево, в 15 км на северо-запад от центра города Анапы.</t>
-  </si>
-  <si>
-    <t>Аэропорт Анапа расположен в 5 км северо-восточнее железнодорожной станции Анапа, в 4 км восточнее села Витязево, в 15 км на северо-запад от центра города Анапы. Обслуживает курортный город Анапа, а также Новороссийск и Темрюк. Входит в топ-20 крупнейших аэропортов России по пассажиропотоку с пропускной способностью 400 пассажиров в час. В 2014 году он впервые за все время своего существования обслужил 1 млн. человек.
+    <t xml:space="preserve">Международный аэропорт Анапа (Витязево) имени В.К. Коккинаки — аэропорт федерального значения. Расположен в 5 км северо-восточнее железнодорожной станции Анапа, в 4 км восточнее села Витязево, в 15 км на северо-запад от центра города Анапы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Анапа расположен в 5 км северо-восточнее железнодорожной станции Анапа, в 4 км восточнее села Витязево, в 15 км на северо-запад от центра города Анапы. Обслуживает курортный город Анапа, а также Новороссийск и Темрюк. Входит в топ-20 крупнейших аэропортов России по пассажиропотоку с пропускной способностью 400 пассажиров в час. В 2014 году он впервые за все время своего существования обслужил 1 млн. человек.
 История аэропорта началась с 1934 года, в этом году начались полёты по расписанию в Анапу из аэропорта Краснодар.  В 1960 году  аэродром Анапа начал регулярный прием и выпуск воздушных судов (Ан-2, Morava) по расписанию. До этого времени в Анапу выполнялись эпизодические полеты воздушных судов. Аэродром располагался в районе Высокого берега. Полёты выполнялись в Краснодар, Новороссийск, Геленджик и другие города побережья. В 1969 году  начато строительстве нового аэродрома недалеко от Витязево. По настоянию ВВС, он получил взлетно-посадочную полосу длиной 2500 м. В 1993 году аэропорт получил статус международного. Первой иностранной авиакомпанией, которое открыло своё представительство, стала Austrian Airlines. С 12 июля 2017 года пассажиров всех рейсов принимает новый одноэтажный терминал. Он оснащён всем необходимым: залами ожидания, табло вылетов/прилётов, 13-ю стойками регистрации и киосками саморегистрации, зонами контроля, системой выдачи багажа (которой не было в старом здании), кассами, кафе, магазинами и т. д. 
 Аэродром Витязево 1-го класса способен принимать самолёты Ан-24, Ан-72, Ан-74, Ан-148, Ил-76, Ил-114, Ту-134, Ту-154, Ту-204, Ту-204С, Ту-214, Як-40, Як-42, СRJ-100, Фоккер-70 (72), Фоккер-100, ATR-42, ATR-72, Saab-2000, Saab-340B, Sukhoi Superjet 100, Airbus A319, Airbus A320, Airbus A321, Embraer-120, Embraer 195, Boeing-737-300, Boeing-737-400, Boeing-737-500, Boeing 737 Next Generation, Boeing 757-200, Boeing 767-300ER (с ограничениями по весу) и все более лёгкие, а также вертолёты всех типов. Аэродром сертифицирован по I категории ИКАО.</t>
   </si>
@@ -523,19 +529,19 @@
     <t xml:space="preserve">Воронеж </t>
   </si>
   <si>
-    <t>Международный аэропорт Воронеж имени Петра I</t>
-  </si>
-  <si>
-    <t>Воронежская область, г. Воронеж, Рамонский р-н, Аэропорт, 1</t>
+    <t xml:space="preserve">Международный аэропорт Воронеж имени Петра I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воронежская область, г. Воронеж, Рамонский р-н, Аэропорт, 1</t>
   </si>
   <si>
     <t>https://vozavia.ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Воронеж имени Петра I — крупнейший по пассажирообороту в Центрально-Чернозёмном экономическом районе, один из запасных для Московского авиаузла. Расположен в 18 км к северу от центра города Воронеж.</t>
-  </si>
-  <si>
-    <t>Аэропорт Воронеж имени Петра Первого благодаря своему географическому положению обслуживает жителей Воронежской и шести соседних областей в радиусе около 500 км. Аэропорт имеет статус аэропорта федерального значения, статус международного получил в 1995 году (первым в Черноземье). По объёму пассажирских перевозок занимает первое место в Центрально-Чернозёмном регионе. На сегодняшний день аэропорт обслуживает примерно 600 000 человек ежегодно.
+    <t xml:space="preserve">Международный аэропорт Воронеж имени Петра I — крупнейший по пассажирообороту в Центрально-Чернозёмном экономическом районе, один из запасных для Московского авиаузла. Расположен в 18 км к северу от центра города Воронеж.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Воронеж имени Петра Первого благодаря своему географическому положению обслуживает жителей Воронежской и шести соседних областей в радиусе около 500 км. Аэропорт имеет статус аэропорта федерального значения, статус международного получил в 1995 году (первым в Черноземье). По объёму пассажирских перевозок занимает первое место в Центрально-Чернозёмном регионе. На сегодняшний день аэропорт обслуживает примерно 600 000 человек ежегодно.
 История аэропорта началась в 1933 году. 9 февраля 1933 года в Воронеже был основан первый гражданский аэродром. Его лётное поле располагалось в пойме реки Воронеж, неподалёку от Успенской церкви.
 В апреле 1965 года за городской чертой Воронежа, в Рамонском районе, у села Чертовицы начато строительство нового терминала с бетонной взлётно-посадочной полосой, который был введён в эксплуатацию в 1971 году.
 Для взлёта и посадки воздушные суда используют одну искусственную взлетно-посадочную полосу с цементобетонным покрытием, усиленным асфальтобетоном длиной 2500 м и шириной 45 м. Аэропорт принимает и отправляет рейсы пассажирских широкофюзеляжных (Boeing 767), узкофюзеляжных (Boeing 737, Boeing 757, Airbus A319, Airbus A320, Airbus A321, Embraer 120, Embraer 145, Embraer 170, Embraer 190, Embraer 195, Ту-204, Ту-214, Sukhoi Superjet 100, Як-40, Як-42, Ан-148 и др.). Международный аэропорт Воронеж способен обслуживать грузовые воздушные суда, обладает возможностью по обработке и отправке до 100 тонн внутренних и международных грузов в сутки. На территории аэропорта расположен и функционирует пункт пропуска через государственную границу, оборудован таможенный пост.</t>
@@ -565,19 +571,19 @@
     <t>Казань</t>
   </si>
   <si>
-    <t>Международный аэропорт Казань имени Габдуллы Тукая</t>
-  </si>
-  <si>
-    <t>Республика Татарстан, Лаишевский район, с. Столбище, Аэропорт</t>
+    <t xml:space="preserve">Международный аэропорт Казань имени Габдуллы Тукая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Татарстан, Лаишевский район, с. Столбище, Аэропорт</t>
   </si>
   <si>
     <t>https://www.kazan.aero/</t>
   </si>
   <si>
-    <t>Международный аэропорт Казань имени Габдуллы Тукая  —  крупнейший по пассажиропотоку в Приволжском Федеральном округе и среди городов расположенных вдоль реки Волги. Расположен в 28 км юго-восточнее центра города Казань.</t>
-  </si>
-  <si>
-    <t>Аэропорт «Казань» имени Габдуллы Тукая сегодня – один из крупнейших аэропортов России, пятикратный обладатель звания «Лучший региональный аэропорт России и СНГ», двукратный обладатель награды за «Лучший аэропортовый персонал России и СНГ» по версии Skytrax, а также обладатель 4 звёзд в рейтинге Skytrax. Аэропорт несколько раз был удостоен национальной премии «Воздушные ворота России» и других наград. Аэровокзальный комплекс состоит из 3 терминалов. Оснащён 4 телетрапами, 40 стойками регистрации, 24 кабинами паспортного контроля.
+    <t xml:space="preserve">Международный аэропорт Казань имени Габдуллы Тукая  —  крупнейший по пассажиропотоку в Приволжском Федеральном округе и среди городов расположенных вдоль реки Волги. Расположен в 28 км юго-восточнее центра города Казань.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт «Казань» имени Габдуллы Тукая сегодня – один из крупнейших аэропортов России, пятикратный обладатель звания «Лучший региональный аэропорт России и СНГ», двукратный обладатель награды за «Лучший аэропортовый персонал России и СНГ» по версии Skytrax, а также обладатель 4 звёзд в рейтинге Skytrax. Аэропорт несколько раз был удостоен национальной премии «Воздушные ворота России» и других наград. Аэровокзальный комплекс состоит из 3 терминалов. Оснащён 4 телетрапами, 40 стойками регистрации, 24 кабинами паспортного контроля.
 Повышенные прочностные характеристики перрона и взлётно-посадочной полосы позволяют принимать самые современные воздушные суда без ограничений по взлётной массе (Airbus 380, Boeing 747, Ан-124 «Руслан» и др., также вертолёты всех типов), а оснащение полосы навигационным и светосигнальным оборудованием позволяет принимать авиарейсы в сложных метеорологических условиях.
 В 2022 году впервые в истории гражданской авиации Республики Татарстан достигнут рекордный показатель по объёмам авиаперевозок в течение одного года – объём пассажиропотока в Международном аэропорту «Казань» достиг исторического максимума, преодолев планку в 4 миллиона обслуженных пассажиров за год – предприятие обслужило 4 млн. 018 тыс. пассажиров.
 Маршрутная сеть аэропорта «Казань» насчитывала 90 направлений, по которым выполнялись как регулярные, так и чартерные перевозки. Из них 33 маршрута – международные (для сравнения в 2021 году рейсы выполнялись по 81 направлению, из которых 33 – международные).</t>
@@ -604,25 +610,25 @@
     <t>https://www.kazan.aero/on-line-schedule/</t>
   </si>
   <si>
-    <t>Калининград (Храброво)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Калининград (Храброво) имени императрицы Елизаветы Петровны</t>
+    <t xml:space="preserve">Калининград (Храброво)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Калининград (Храброво) имени императрицы Елизаветы Петровны</t>
   </si>
   <si>
     <t>Калининград</t>
   </si>
   <si>
-    <t>Калининградская область, пос. Храброво, улица Аэропортная, 1</t>
+    <t xml:space="preserve">Калининградская область, пос. Храброво, улица Аэропортная, 1</t>
   </si>
   <si>
     <t>https://kgdavia.ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Калининград (Храброво) имени императрицы Елизаветы Петровны — аэропорт федерального значения, расположен в 21 км к северо-востоку от центра Калининграда рядом с посёлком Храброво Гурьевского района Калининградской области.</t>
-  </si>
-  <si>
-    <t>Аэропорт Калининград (Храброво) имени императрицы Елизаветы Петровны —  самый западный аэропорт России.
+    <t xml:space="preserve">Международный аэропорт Калининград (Храброво) имени императрицы Елизаветы Петровны — аэропорт федерального значения, расположен в 21 км к северо-востоку от центра Калининграда рядом с посёлком Храброво Гурьевского района Калининградской области.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Калининград (Храброво) имени императрицы Елизаветы Петровны —  самый западный аэропорт России.
 Первый аэропорт в Калининграде (тогда Кенигсберге) был образован на базе совместного русско-германского авиапредприятия «Дерулюфт» в 1922 году. В 1945 году аэропорт перешел в собственность гражданской авиации СССР. В середине 50-х авиапредприятие передислоцируется в поселок Храброво, а в 1961 году на базе аэропорта была сформирована объединенная авиационная эскадрилья. В 1989 аэропорт, получивший возможность обслуживать более трех миллионов пассажиров в год, получает статус международного. В октябре 2007 запущена в эксплуатацию новая взлетно-посадочная полоса и первая линия аэровокзального комплекса в Храброво. 
 В рамках подготовки России к проведению чемпионата мира по футболу 2018 года в июле 2017 года был введён в эксплуатацию новый терминал. Площадь пассажирского терминала составляет 39762 кв.м. Аэропорт рассчитан на пассажиропоток 5 млн человек в год. Максимальная пропускная способность составляет 1250 пассажиров в час.
 31 мая 2019 года аэропорту присвоено имя российской императрицы Елизаветы Петровны. Её историческая связь с Калининградской областью определяется тем, что во время Семилетней войны (1756-1763 гг.) Восточная Пруссия и город Кёнигсберг четыре года входили в состав России. 
@@ -653,25 +659,25 @@
     <t>https://kgdavia.ru/passengers/information/timetable/</t>
   </si>
   <si>
-    <t>Краснодар (Пашковский)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Краснодар (Пашковский) имени Екатерины II</t>
+    <t xml:space="preserve">Краснодар (Пашковский)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Краснодар (Пашковский) имени Екатерины II</t>
   </si>
   <si>
     <t>Краснодар</t>
   </si>
   <si>
-    <t>Краснодарский край, г. Краснодар, ул. им. Евдокии Бершанской, 355</t>
+    <t xml:space="preserve">Краснодарский край, г. Краснодар, ул. им. Евдокии Бершанской, 355</t>
   </si>
   <si>
     <t>https://krr.aero/</t>
   </si>
   <si>
-    <t>Международный аэропорт Краснодар (Пашковский) имени Екатерины II — девятый по загруженности в России и второй по величине аэропорт Юга России (после аэропорта Сочи). Расположен  в 12 километрах от центра города в восточном направлении.</t>
-  </si>
-  <si>
-    <t>Аэропорт Краснодар (Пашковский) имени Екатерины II — седьмой по загруженности в России и второй по величине аэропорт Юга России (после аэропорта Сочи). Расположен  в 12 километрах от центра города в восточном направлении.
+    <t xml:space="preserve">Международный аэропорт Краснодар (Пашковский) имени Екатерины II — девятый по загруженности в России и второй по величине аэропорт Юга России (после аэропорта Сочи). Расположен  в 12 километрах от центра города в восточном направлении.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Краснодар (Пашковский) имени Екатерины II — седьмой по загруженности в России и второй по величине аэропорт Юга России (после аэропорта Сочи). Расположен  в 12 километрах от центра города в восточном направлении.
 Международный аэропорт Краснодар (Пашковский) имени Екатерины II является вторым по величине аэропортом Юга России (после аэропорта Сочи), занимает 9-е место по пассажиропотоку среди российских аэропортов (после московских аэропортов (Шереметьево, Домодедово и Внуково), петербургского (Пулково), аэропорта Сочи, новосибирского (Толмачёво), аэропорта Симферополь и екатеринбургского (Кольцово). 
 Началом истории аэропорта считается 1932 год, на землях совхоза «Пашковский» была сформирована авиабаза. В 1934 году она подверглась реорганизации, в результате которой основная часть транспортных судов стала заниматься перевозкой пассажиров.  В 1960 году начали строительство бетонной взлетной полосы, что позволило принимать более массивные самолеты типа Ил-18. В том же году закончили строительство аэровокзала. Новое здание аэровокзала открыто в 1969 г. В 1984 г. завершено строительство 2-й взлётно-посадочной полосы (реконструирована в 2017).
 Аэропорт Краснодар имеет три взлетно-посадочных полосы с искусственным покрытием. Основная взлетно-посадочная полоса способна принимать самолёты Ил-76, Ту-204, Airbus A330, Boeing 767, Boeing 787, Boeing 777-200 (с ограничениями), Boeing 747 (с ограничениями), Embraer 195, Sukhoi Superjet 100 и все более лёгкие, а также вертолёты всех типов. Аэровокзальный комплекс аэропорта включает в себя два пассажирских терминала и отдельный VIP-терминал.
@@ -702,19 +708,19 @@
     <t>Симферополь</t>
   </si>
   <si>
-    <t>Международный аэропорт Симферополь имени И.К. Айвазовского</t>
-  </si>
-  <si>
-    <t>Республика Крым, Симферопольский район, Укромновское сельское поселение, площадь Воссоединения, 1</t>
+    <t xml:space="preserve">Международный аэропорт Симферополь имени И.К. Айвазовского</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Крым, Симферопольский район, Укромновское сельское поселение, площадь Воссоединения, 1</t>
   </si>
   <si>
     <t>https://sip-aero.ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Симферополь имени И. К. Айвазовского —  воздушный порт Крыма, входит в десятку российских аэропортов по объему перевезенных пассажиров. Располагается вблизи села Укромное, в 20 километрах от центра Симферополя.</t>
-  </si>
-  <si>
-    <t>Аэропорт Симферополь имени И. К. Айвазовского —  воздушный порт Крыма, входит в десятку российских аэропортов по объему перевезенных пассажиров. Пассажиропоток аэропорта в 2021 году составил 6,8 млн человек. В весенне-летний период перелеты из аэропорта Симферополь осуществляются по 63 направлениям — на юг, север, запад, восток России, в Сибирь и на Урал.
+    <t xml:space="preserve">Международный аэропорт Симферополь имени И. К. Айвазовского —  воздушный порт Крыма, входит в десятку российских аэропортов по объему перевезенных пассажиров. Располагается вблизи села Укромное, в 20 километрах от центра Симферополя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Симферополь имени И. К. Айвазовского —  воздушный порт Крыма, входит в десятку российских аэропортов по объему перевезенных пассажиров. Пассажиропоток аэропорта в 2021 году составил 6,8 млн человек. В весенне-летний период перелеты из аэропорта Симферополь осуществляются по 63 направлениям — на юг, север, запад, восток России, в Сибирь и на Урал.
 Решение о строительстве аэропорта было принято 21 января 1936 года. Первый рейс в Москву со взлетом с грунтовой взлетно-посадочной полосы был выполнен 1 мая 1936 года. В 1957 году открыто первое здание аэровокзала, оно было выполнено в стиле сталинского ампира с 12-колонным портиком. В 1960 году завершено строительство бетонной взлетно-посадочной полосы длиной 2,7 км. 20 апреля 2016 года правительство России внесло аэропорт Симферополь в перечень аэропортов федерального значения.
 16 апреля 2018 года открылся новый аэровокзальный комплекс, получивший неофициальное название «Волна» («Крымская волна»).
 Аэродром аэропорта Симферополь относится к классу А, способен принимать все типы самолётов и вертолётов. Аэродром имеет одну взлетно-посадочную полосу дляиной 3 706 м. Под взлетно-посадочной полосой и идущей параллельно рулёжной дорожкой проложен тоннель автодороги Р-25 Симферополь — Евпатория.</t>
@@ -741,25 +747,25 @@
     <t>https://sip-aero.ru/#tablo</t>
   </si>
   <si>
-    <t>Грозный (Северный)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Грозный (Северный) имени Ахмата Кадырова</t>
+    <t xml:space="preserve">Грозный (Северный)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Грозный (Северный) имени Ахмата Кадырова</t>
   </si>
   <si>
     <t>Грозный</t>
   </si>
   <si>
-    <t>Республика Чечня, г. Грозный, ул. Абузара Айдамирова, 320</t>
+    <t xml:space="preserve">Республика Чечня, г. Грозный, ул. Абузара Айдамирова, 320</t>
   </si>
   <si>
     <t>https://vaynahavia.com/</t>
   </si>
   <si>
-    <t>Международный аэропорт Грозный (Северный) им. Ахмата Кадырова — главный аэропорт Чечни находится в столице республики в северной части Грозного, в 9 километрах от центра.</t>
-  </si>
-  <si>
-    <t>Аэропорт Грозный имеет один терминал, где проходят регистрацию пассажиры внутренних и международных рейсов. Для вылетающих бизнес-классом регистрация отдельная.
+    <t xml:space="preserve">Международный аэропорт Грозный (Северный) им. Ахмата Кадырова — главный аэропорт Чечни находится в столице республики в северной части Грозного, в 9 километрах от центра.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Грозный имеет один терминал, где проходят регистрацию пассажиры внутренних и международных рейсов. Для вылетающих бизнес-классом регистрация отдельная.
 Аэродром имеет одну асфальтобетонную взлётно-посадочную полосу протяжённостью в 2500 метров и шириной в 45 метров, которая позволяет принимать бсолютно все типы вертолётов, а также самолёты типа Ан-72, Ан-74, Ил-114, Airbus A320, Boeing 737, Boeing 757 и другие, более лёгкие воздушные суда.
 Впервые Грозненское авиапредприятие «Аэропорт Грозный» начало свою работу в 1938 году.  В 1977 году был введен в действие новый аэропортовый комплекс с искусственной взлётно-посадочной полосой и базированием пассажирских авиалайнеров Ту-134. 
 В течение 1999-2006 гг. взлётно-посадочная полоса была расширена и удлинена, была создана современная дренажная система. Появился аэропортовый комплекс, способный принимать Ту-154 и Ил-62. 6 ноября 2009 года Межгосударственный авиационный комитет выдал аэродрому международный сертификат.
@@ -788,25 +794,25 @@
     <t>https://vaynahavia.com/board.php</t>
   </si>
   <si>
-    <t>Махачкала (Уйташ)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Махачкала (Уйташ) имени дважды Героя Советского Союза Амет-Хана Султана</t>
+    <t xml:space="preserve">Махачкала (Уйташ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Махачкала (Уйташ) имени дважды Героя Советского Союза Амет-Хана Султана</t>
   </si>
   <si>
     <t>Махачкала</t>
   </si>
   <si>
-    <t>Республика Дагестан, Карабудахкентский район, аэропорт Махачкала (Уйташ), 1</t>
+    <t xml:space="preserve">Республика Дагестан, Карабудахкентский район, аэропорт Махачкала (Уйташ), 1</t>
   </si>
   <si>
     <t>https://mcx.aero/</t>
   </si>
   <si>
-    <t>Международный аэропорт Махачкала (Уйташ) имени дважды Героя Советского Союза Амет-Хана Султана — аэропорт федерального значения, расположен на территории Карабудахкентского района, в 4,5 км от города Каспийска и в 22 км от центра столицы Республики Дагестан.</t>
-  </si>
-  <si>
-    <t>Аэропорт Махачкала (Уйташ) является основным аэропортот Республики  Дагестан и старейшим авиапредприятием дагестанского авиационного узла. Благодаря своему расположению на трансконтинентальном маршруте «Север – Юг», самый южный аэропорт России стал перспективным хабом, открывающим большие возможности не только для собственного развития, но и всей авиации страны. Пассажиропоток в 2023 году составил рекордные 2 800 468 человек.
+    <t xml:space="preserve">Международный аэропорт Махачкала (Уйташ) имени дважды Героя Советского Союза Амет-Хана Султана — аэропорт федерального значения, расположен на территории Карабудахкентского района, в 4,5 км от города Каспийска и в 22 км от центра столицы Республики Дагестан.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Махачкала (Уйташ) является основным аэропортот Республики  Дагестан и старейшим авиапредприятием дагестанского авиационного узла. Благодаря своему расположению на трансконтинентальном маршруте «Север – Юг», самый южный аэропорт России стал перспективным хабом, открывающим большие возможности не только для собственного развития, но и всей авиации страны. Пассажиропоток в 2023 году составил рекордные 2 800 468 человек.
 Аэродром образован 3 февраля 1927 года как «воздушная станция» на трассе Москва — Харьков — Ростов-на-Дону — Тифлис, а в 1932 году Правительством Дагестанской АССР были начаты работы по строительству аэровокзала. На нынешнем месте, в районе станции «Уйташ», аэропорт был открыт в 1958 году после выноса со старого места в черте города. В 1985-86 г.г. полностью реконструирована и удлинена взлётно-посадочная полоса, что позволило увеличить объём пассажирских перевозок за счёт приёма, обслуживания и выпуска современных магистральных самолётов. После реконструкции в 2014 году, у аэропорта появилась техническая возможность принимать такие крупные самолёты, как Airbus A318/319/320/321, Boeing 737, Boeing 757, Sukhoi Superjet 100, Ан-148, Ту-134, Ту-154, Ту-204/214, Як-40, Як-42. А с 3 мая 2017 года допускается к приему и выпуску широкофюзеляжных самолетов. Так, воздушная гавань Дагестана признана пригодной для эксплуатации воздушных судов Boeing-767-200, Boeing-767-200ER, Boeing-767-300 и Boeing-767-300ER, а также Airbus A-330-200 и их модификаций.
 Аэропорт состоит из двух терминалов, обслуживающих внутренние и международные рейсы. Терминал внутренних рейсов занимает 2-этажное здание. На первом этаже расположены стойки регистрации, VIP-зал, банкоматы, почта, магазины, кафе, зал ожидания, медпункт. На втором этаже —комната матери и ребенка, игровая зона для детей, кафе и еще один зал ожидания.
 На двух этажах международного терминала находятся кафе, паспортный контроль, стойки регистрации и магазины, в том числе Duty Free.</t>
@@ -836,19 +842,19 @@
     <t>Уфа</t>
   </si>
   <si>
-    <t>Международный аэропорт Уфа имени Мустая Карима</t>
-  </si>
-  <si>
-    <t>Республика Башкортостан, Уфимский район, село Булгаково, микрорайон Аэропорт, 1</t>
+    <t xml:space="preserve">Международный аэропорт Уфа имени Мустая Карима</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Башкортостан, Уфимский район, село Булгаково, микрорайон Аэропорт, 1</t>
   </si>
   <si>
     <t>https://ufa.aeroport.website/</t>
   </si>
   <si>
-    <t>Международный аэропорт Уфа имени Мустая Карима — аэропорт федерального значения,  расположен в Республике Башкортостан, на территории городского округа Уфа, в 25 км к югу от центра города.</t>
-  </si>
-  <si>
-    <t>Аэропорт Уфа – один из ведущих в России. Является основным связующим звеном между республикой Башкортостан и федеральным центром, центрами федеральных округов. Он имеет столетнюю историю и появился на заре авиации Башкортостана. Занимает первое место в Приволжском федеральном округе по количеству обслуживаемых пассажиров, в 2023 год пассажиропоток составил рекордные 4 794 786 человек.
+    <t xml:space="preserve">Международный аэропорт Уфа имени Мустая Карима — аэропорт федерального значения,  расположен в Республике Башкортостан, на территории городского округа Уфа, в 25 км к югу от центра города.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Уфа – один из ведущих в России. Является основным связующим звеном между республикой Башкортостан и федеральным центром, центрами федеральных округов. Он имеет столетнюю историю и появился на заре авиации Башкортостана. Занимает первое место в Приволжском федеральном округе по количеству обслуживаемых пассажиров, в 2023 год пассажиропоток составил рекордные 4 794 786 человек.
 Аэропорт является обладателем 4 звезд в рейтинге престижного международного авиатранспортного агентства Skytrax и является пятым в России, СНГ и Центральной Азии, достигшим четырехзвездочного рейтинга.
 Международный аэропорт Уфа является аэропортом 1-го класса с аэродромом класса «Б». Общая площадь аэропорта 796 га. Действуют 2 взлётно-посадочные полосы длиной 2,5 и 3,8 км, ширина полос 49 и 45 м соответственно. Аэродром способен принимать практически все типы воздушных судов вплоть до широкофюзеляжных Boeing 747-400 и Boeing 777, а также вертолёты всех типов. Аэропорт имеет 37 мест для стоянок воздушных судов. 
 В 2021 г. введён в строй объединённый терминал внутренних воздушных линий, его пропускная способность возросла с 600 до 1200 человек в час. В 2022–2023 гг. сооружён навес площадью 8,5 тыс. м2, объединяющий терминалы внутренних и международных авиалиний.</t>
@@ -875,25 +881,25 @@
     <t>https://ufa.aeroport.website/15-online-tablo</t>
   </si>
   <si>
-    <t>Владивосток (Кневичи)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Владивосток (Кневичи) имени В.К. Арсеньева</t>
+    <t xml:space="preserve">Владивосток (Кневичи)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Владивосток (Кневичи) имени В.К. Арсеньева</t>
   </si>
   <si>
     <t>Владивосток</t>
   </si>
   <si>
-    <t>Приморский край, г. Артем, ул. Владимира Сайбеля 45</t>
+    <t xml:space="preserve">Приморский край, г. Артем, ул. Владимира Сайбеля 45</t>
   </si>
   <si>
     <t>https://aerovlad.ru/ru</t>
   </si>
   <si>
-    <t>Международный аэропорт Владивосток (Кневичи) имени В.К. Арсеньева — аэропорт федерального значения, занимает лидирующую позицию среди дальневосточных аэропортов по пассажиропотоку. Расположен западнее села Кневичи, в 2,5 км от города Артёма, и в 38 км северо-восточнее города Владивосток.</t>
-  </si>
-  <si>
-    <t>Аэропорт «Владивосток» является главным воздушным транспортным узлом Приморского края и является одним из лидеров среди аэропортов Дальнего Востока по количеству обслуженных пассажиров. Удачное географическое положение города, давшего названия воздушному порту, на пересечении торговых и экономических связей российского Дальнего Востока и Азиатско-Тихоокеанского региона, придает аэропорту важное стратегическое значение.
+    <t xml:space="preserve">Международный аэропорт Владивосток (Кневичи) имени В.К. Арсеньева — аэропорт федерального значения, занимает лидирующую позицию среди дальневосточных аэропортов по пассажиропотоку. Расположен западнее села Кневичи, в 2,5 км от города Артёма, и в 38 км северо-восточнее города Владивосток.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт «Владивосток» является главным воздушным транспортным узлом Приморского края и является одним из лидеров среди аэропортов Дальнего Востока по количеству обслуженных пассажиров. Удачное географическое положение города, давшего названия воздушному порту, на пересечении торговых и экономических связей российского Дальнего Востока и Азиатско-Тихоокеанского региона, придает аэропорту важное стратегическое значение.
 Аэропорт дважды стал обладателем Национальной авиационной премии «Крылья России» в номинации «Аэропорт года до 3 млн пассажиров» (по итогам 2023 и 2024 года).
 Международный аэропорт «Владивосток» имени В.К. Арсеньева ранее носил название Кневичи. С самого начала своей истории, с 1932 года, аэропорт в окрестностях Владивостока служил аэродромом совместного базирования и всегда был востребован и в качестве гражданского, и в качестве военного объекта.  В 1970-е годы был введен в строй новый аэровокзал города Владивостока, сразу начавший принимать современные лайнеры Ту-154. 
 В 2012 году был построен новый терминал (Терминал А) стоимостью 7 миллиардов рублей. Пропускная способность этого нового терминала составляет 3,5 миллиона пассажиров в год. Взлетно-посадочная полоса (ВПП) также была реконструирована и удлинена до 3500 метров, и эта новая взлетно-посадочная полоса способна принимать все типы воздушных судов. Частота рейсов на широкофюзеляжных воздушных судах в Москву и Санкт-Петербург в летнем сезоне суммарно достигает 7 рейсов в день. Рейсы в Бангкок и Пхукет стали выполняться на широкофюзеляжных воздушных судах Boeing-777. Важнейшим событием стал приход на базировку в аэропорт Владивосток воздушных судов SSJ-100 авиакомпании «Россия».
@@ -924,25 +930,25 @@
     <t>https://aerovlad.ru/ru/timetable</t>
   </si>
   <si>
-    <t>Хабаровск (Новый)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Хабаровск (Новый) имени Г.И. Невельского</t>
+    <t xml:space="preserve">Хабаровск (Новый)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Хабаровск (Новый) имени Г.И. Невельского</t>
   </si>
   <si>
     <t>Хабаровск</t>
   </si>
   <si>
-    <t>Хабаровский край, г. Хабаровск, Матвеевское шоссе, 32</t>
+    <t xml:space="preserve">Хабаровский край, г. Хабаровск, Матвеевское шоссе, 32</t>
   </si>
   <si>
     <t>https://khv.aero/</t>
   </si>
   <si>
-    <t>Международный аэропорт Хабаровск (Новый) имени Г.И. Невельского  — аэропорт федерального значения, расположение в 10,5 км к северо-востоку от центра Хабаровска, за пределами границы города, вплотную примыкает к ней.</t>
-  </si>
-  <si>
-    <t>Аэропорт Хабаровск (Новый) важнейший транзитный авиаузел Хабаровского края и Дальневосточного федерального округа, второй по величине пассажирооборота в федеральном округе после Международного аэропорта Владивосток имени В. К. Арсеньева. В 2023 году пассажирооборот аэропорта составил 2 264 тыс. пассажиров.
+    <t xml:space="preserve">Международный аэропорт Хабаровск (Новый) имени Г.И. Невельского  — аэропорт федерального значения, расположение в 10,5 км к северо-востоку от центра Хабаровска, за пределами границы города, вплотную примыкает к ней.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Хабаровск (Новый) важнейший транзитный авиаузел Хабаровского края и Дальневосточного федерального округа, второй по величине пассажирооборота в федеральном округе после Международного аэропорта Владивосток имени В. К. Арсеньева. В 2023 году пассажирооборот аэропорта составил 2 264 тыс. пассажиров.
 Международный аэропорт Хабаровск (Новый) открылся в 1953 году. Аэропорт является аэропортом 1-го класса (технически может обслуживать 10–15 млн пассажиров в год), с аэродромом класса А. Для взлёта и посадки воздушных судов используют две искусственные взлетно-посадочные полосы длиной 3 500 м и 4 000 м. Радионавигационное и светотехническое оборудование аэропорта сертифицировано по II категории ИКАО, т. е. аэропорт может принимать воздушные суда практически в любых погодных условиях. Перрон аэропорта рассчитан на размещение 55 самолетов одновременно.
 Аэропорт принимает и отправляет рейсы пассажирских широкофюзеляжных (Boeing 747, Airbus A340, Airbus A350, Ил-96 и др.), узкофюзеляжных (Ту-204, Embraer 190 и др.), тяжёлых транспортных (Ил-76, Ан-124 «Руслан» и др.) самолётов, а также вертолётов всех типов.
 Аэровокзальный комплекс включает в себя два терминала: терминал внутренних авиалиний с пропускной способностью 1500 пассажиров в час и терминал международных авиалиний, способный обслужить до 700 пассажиров в час.</t>
@@ -969,25 +975,25 @@
     <t>https://khv.aero/online/</t>
   </si>
   <si>
-    <t>Тамбов (Донское)</t>
-  </si>
-  <si>
-    <t>Аэропорт Тамбов (Донское)</t>
+    <t xml:space="preserve">Тамбов (Донское)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Тамбов (Донское)</t>
   </si>
   <si>
     <t>Донское</t>
   </si>
   <si>
-    <t>Тамбовская область, с. Донское, микрорайон Аэропорт, 3</t>
+    <t xml:space="preserve">Тамбовская область, с. Донское, микрорайон Аэропорт, 3</t>
   </si>
   <si>
     <t>https://airport-tambov.ru/</t>
   </si>
   <si>
-    <t>Аэропорт Тамбов (Донское) — гражданский аэропорт федерального значения, расположен в 10 км северо-восточнее центра города, недалеко от села Донское.</t>
-  </si>
-  <si>
-    <t>Аэропорт Тамбов (Донское) – это региональный аэропорт, который обеспечивает жителей области воздушной связью с городами Центральной России. История авиаотрасли в Тамбовской Губернии началась в 1923 году.
+    <t xml:space="preserve">Аэропорт Тамбов (Донское) — гражданский аэропорт федерального значения, расположен в 10 км северо-восточнее центра города, недалеко от села Донское.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Тамбов (Донское) – это региональный аэропорт, который обеспечивает жителей области воздушной связью с городами Центральной России. История авиаотрасли в Тамбовской Губернии началась в 1923 году.
 1970 — начато строительство бетонной взлётно-посадочной полосы, дороги от города до аэропорта, стоянок самолётов, нового здания аэровокзала.
 1971 — в эксплуатацию поступили самолёты Ан-24.
 1974-1975 гг. — сданы в эксплуатацию здание аэровокзала и гостиницы аэропорта.
@@ -1022,19 +1028,19 @@
     <t>Липецк</t>
   </si>
   <si>
-    <t>Международный аэропорт Липецк</t>
-  </si>
-  <si>
-    <t>Липецкая область, Липецкий район, с. Кузьминские Отвержки, Район аэропорта, 1</t>
+    <t xml:space="preserve">Международный аэропорт Липецк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Липецкая область, Липецкий район, с. Кузьминские Отвержки, Район аэропорта, 1</t>
   </si>
   <si>
     <t>https://aeroportlipetsk.ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Липецк — гражданский аэропорт международного значения неподалёку от города Липецк. Расположен в 15 км к северо-западу от центра города.</t>
-  </si>
-  <si>
-    <t>Аэропорт Липецк был открыт в июле 1966 года. На тот момент здание вмещало не более 100 пассажиров. В 1987 году открылся новый аэровокзал — на 200 пассажиров.
+    <t xml:space="preserve">Международный аэропорт Липецк — гражданский аэропорт международного значения неподалёку от города Липецк. Расположен в 15 км к северо-западу от центра города.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Липецк был открыт в июле 1966 года. На тот момент здание вмещало не более 100 пассажиров. В 1987 году открылся новый аэровокзал — на 200 пассажиров.
 В 2006 году в аэропорту введена в эксплуатацию современная инструментальная система посадки, позволяющая принимать самолёты в условиях плохой видимости.
 После частичной реконструкции, включавшей оборудование пункта пропуска через государственную границу, завершившееся в 2015 году, аэропорт получил статус международного. 
 В 2017 году была завершена одна из основных частей реконструкции аэропорта, в результате которой он имеет возможность принимать такие популярные виды однопалубных самолётов как Airbus A320 и Boeing 737.</t>
@@ -1064,19 +1070,19 @@
     <t>Иркутск</t>
   </si>
   <si>
-    <t>Международный аэропорт Иркутск</t>
-  </si>
-  <si>
-    <t>Иркутская область, г. Иркутск, ул. Ширямова, 13</t>
+    <t xml:space="preserve">Международный аэропорт Иркутск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иркутская область, г. Иркутск, ул. Ширямова, 13</t>
   </si>
   <si>
     <t>https://iktport.ru/ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Иркутск  — аэропорт федерального значения, крупнейший аэровокзал во всей азиатской части России. Расположен на окраине Иркутска в 5,5 км от центра города, на расстоянии 60 километров от озера Байкал.</t>
-  </si>
-  <si>
-    <t>Аэропорт в Иркутске расположен прямо в городской черте, и все самолеты пролетают над городскими микрорайонами.
+    <t xml:space="preserve">Международный аэропорт Иркутск  — аэропорт федерального значения, крупнейший аэровокзал во всей азиатской части России. Расположен на окраине Иркутска в 5,5 км от центра города, на расстоянии 60 километров от озера Байкал.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт в Иркутске расположен прямо в городской черте, и все самолеты пролетают над городскими микрорайонами.
 Иркутский аэропорт считается одним из сложных. Аэродром расположен в горной местности, на высоте 600 метров над уровнем моря. Из-за крутой глиссады захода при посадке самолет должен почти "падать" на полосу. Кроме того, там низкое давление, что по мнению пилотов, сказывается на работе двигателей.
 В 2001-2003 гг. была проведена реконструкция аэродрома - взлет и посадка самолетов в аэропорту были развернуты в сторону Байкала, а взлетно-посадочная полоса удлинена. 
 14 июля 2004 аэродром получил сертификат на допуск к международным полётам и посадке по минимуму I-й категории ИКАО. 
@@ -1108,19 +1114,19 @@
     <t>Красноярск</t>
   </si>
   <si>
-    <t>Международный аэропорт Красноярск имени Д.А. Хворостовского</t>
-  </si>
-  <si>
-    <t>Красноярский край, Емельяновский район, пгт. Емельяново, Аэропорт Красноярск</t>
+    <t xml:space="preserve">Международный аэропорт Красноярск имени Д.А. Хворостовского</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красноярский край, Емельяновский район, пгт. Емельяново, Аэропорт Красноярск</t>
   </si>
   <si>
     <t>https://www.kja.aero/</t>
   </si>
   <si>
-    <t>Международный аэропорт Красноярск имени Д.А. Хворостовского — аэропорт федерального значения, основная воздушная гавань города Красноярска.  Расположен в 27 км к северо-западу от центра Красноярска.</t>
-  </si>
-  <si>
-    <t>Аэропорт Красноярск – крупнейший аэропорт Восточной и Центральной Сибири, является одним из важнейших транзитных узлов воздушного сообщения между Европой и Азией. Пассажирооборот аэропорта составляет 3 774 тыс. пассажиров (2023 год).
+    <t xml:space="preserve">Международный аэропорт Красноярск имени Д.А. Хворостовского — аэропорт федерального значения, основная воздушная гавань города Красноярска.  Расположен в 27 км к северо-западу от центра Красноярска.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Красноярск – крупнейший аэропорт Восточной и Центральной Сибири, является одним из важнейших транзитных узлов воздушного сообщения между Европой и Азией. Пассажирооборот аэропорта составляет 3 774 тыс. пассажиров (2023 год).
 В 2009 году введён в строй грузовой терминал, реконструированный в 2019–2021 гг. в связи с созданием в аэропорту Красноярск крупного международного таможенно-логистического центра с пропускной способностью 100 тыс. т грузов в год, включая 3,5 тыс. т почтовых грузов; в его составе – зона хранения температурно-чувствительных грузов, в том числе вакцин. 
 Аэродром получил класс А, имеет одну взлетно-посадочную полосу длиной 3 700 м и шириной 60 м, способен принимать воздушные суда любого класса, без ограничений максимальной взлётной массы. Оснащён 69 местами стоянок воздушных судов, из которых 9 – для особо крупных самолётов. Его радионавигационное и светотехническое оборудование сертифицировано по II категории ИКАО, что позволяет воздушным судам садиться практически при любых погодных условиях. 
 В сентябре 2021 г. в эксплуатацию введена магистральная рулёжная дорожка, позволяющая использовать её воздушным судам типа Boeing 747-400 (с размахом крыльев 42–65 м и колеёй шасси по внешним авиашинам 10,5–14 м). Аэропорт Красноярск – один из немногих в Сибири, способных принимать сверхтяжёлые транспортные самолёты Ан-225 (это требует исключительной прочности основания ВПП). 
@@ -1153,22 +1159,25 @@
     <t>https://www.kja.aero/page-online-tablo/</t>
   </si>
   <si>
+    <t xml:space="preserve">Анадырь (Угольный)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Анадырь (Угольный) имени Ю. С. Рытхэу</t>
+  </si>
+  <si>
     <t>Анадырь</t>
   </si>
   <si>
-    <t>Международный аэропорт Анадырь (Угольный) имени Ю. С. Рытхэу</t>
-  </si>
-  <si>
-    <t>Чукотский автономный округ, Анадырский район, пос. Угольные Копи 3-й,  Аэропорт Анадырь</t>
+    <t xml:space="preserve">Чукотский автономный округ, Анадырский район, пос. Угольные Копи 3-й,  Аэропорт Анадырь</t>
   </si>
   <si>
     <t>https://apchukotki.ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Анадырь (Угольный) имени Ю.С. Рытхэу — аэропорт федерального значения, главный авиаузел Чукотского автономного округа, расположенный в 10 км северо-восточнее города Анадырь и в 2 км от посёлка городского типа Угольные Копи.</t>
-  </si>
-  <si>
-    <t>Аэропорт Анадырь (Угольный) является самым большим воздушно-транспортным узлом в Чукотском автономном округе.
+    <t xml:space="preserve">Международный аэропорт Анадырь (Угольный) имени Ю.С. Рытхэу — аэропорт федерального значения, главный авиаузел Чукотского автономного округа, расположенный в 10 км северо-восточнее города Анадырь и в 2 км от посёлка городского типа Угольные Копи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Анадырь (Угольный) является самым большим воздушно-транспортным узлом в Чукотском автономном округе.
 Аэропорт построен на вечной мерзлоте. Расположен на противоположном берегу бухты (лимана) от Анадыря. Летом добраться в город можно на катере или пароме, зимой - по льду. В межсезонье (май, октябрь) только вертолётом. 
 В аэропорту Анадыря большая взлетно-посадочная полоса длиной 3,5 км и шириной 60 метров. Здесь могут садиться почти любые воздушные суда вплоть до Boeing-747 и 777. Новое здание аэровокзала открыли в 2005 году.
 Аэропорт носит имя советского, российского, чукотского писателя и переводчика Юрия Сергеевича Рытхэу.</t>
@@ -1195,31 +1204,31 @@
     <t>Asia/Anadyr</t>
   </si>
   <si>
-    <t>Магадан (Сокол)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Магадан (Сокол) имени В.С. Высоцкого</t>
+    <t xml:space="preserve">Магадан (Сокол)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Магадан (Сокол) имени В.С. Высоцкого</t>
   </si>
   <si>
     <t xml:space="preserve">Магадан </t>
   </si>
   <si>
-    <t>Магаданская область, г. Магадан, п. Сокол, Аэропорт</t>
+    <t xml:space="preserve">Магаданская область, г. Магадан, п. Сокол, Аэропорт</t>
   </si>
   <si>
     <t>https://airport-magadan.ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Магадан (Сокол) имени В.С. Высоцкого — аэропорт федерального значения, расположен рядом с посёлком Сокол, к северу от города Магадана на 56 км основной Колымской трассы.</t>
-  </si>
-  <si>
-    <t>Аэропорт Магадан (Сокол) был открыт 12 января 1961 года. Тогда он назывался Магадан-56 (из-за своего расположения на 56-м километре Колымского шоссе) и обслуживал все пассажирские авиарейсы в регионе. 
+    <t xml:space="preserve">Международный аэропорт Магадан (Сокол) имени В.С. Высоцкого — аэропорт федерального значения, расположен рядом с посёлком Сокол, к северу от города Магадана на 56 км основной Колымской трассы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Магадан (Сокол) был открыт 12 января 1961 года. Тогда он назывался Магадан-56 (из-за своего расположения на 56-м километре Колымского шоссе) и обслуживал все пассажирские авиарейсы в регионе. 
 В 1980 году по маршруту Магадан – Москва осуществлен первый беспосадочный перелет. 
 Взлетно-посадочная полоса аэродрома, укрепленная асфальтобетоном, составляет 3 400 м, что позволяет принимать все типы воздушных судов без ограничения. 9 декабря 2019 из Москвы в Магадан впервые прибыл Boeing 747-8F рейсом авиакомпании AirBridgeCargo. Один из самых больших самолётов в мире доставил 62,6 тонны груза (товары народного потребления) и 10,9 тонны почты. 10 декабря 2019 года Boeing 747-8F вылетел по маршруту Магадан — Гонконг. Пропускная способность аэропорта составляет 600 пассажиров в час.
 31 мая 2019 года аэропорту присвоено имя Владимира Высоцкого.</t>
   </si>
   <si>
-    <t>УХММ</t>
+    <t>UHMM</t>
   </si>
   <si>
     <t>GDX</t>
@@ -1243,25 +1252,25 @@
     <t>https://airport-magadan.ru/passengers/information/timetable/</t>
   </si>
   <si>
-    <t>Петропавловск-Камчатский (Елизово)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Петропавловск-Камчатский (Елизово) имени Витуса Беринга</t>
+    <t xml:space="preserve">Петропавловск-Камчатский (Елизово)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Петропавловск-Камчатский (Елизово) имени Витуса Беринга</t>
   </si>
   <si>
     <t>Елизово</t>
   </si>
   <si>
-    <t>Камчатский край, г. Елизово, ул. Звёздная, 14</t>
+    <t xml:space="preserve">Камчатский край, г. Елизово, ул. Звёздная, 14</t>
   </si>
   <si>
     <t>https://ar-pkc.ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Петропавловск-Камчатский (Елизово) имени Витуса Беринга — основные воздушные ворота в Камчатском крае, расположен в 29 км от Петропавловска-Камчатского, в городе Елизово.</t>
-  </si>
-  <si>
-    <t>Аэропорт Петропавловск-Камчатский (Елизово) — аэропорт федерального значения, единственный, обеспечивающий пассажирское сообщение Камчатского края с остальными субъектами Российской Федерации и странами мира. Относится к аэропортам 4-го класса, ежегодно принимает около 600 тысяч пассажиров.
+    <t xml:space="preserve">Международный аэропорт Петропавловск-Камчатский (Елизово) имени Витуса Беринга — основные воздушные ворота в Камчатском крае, расположен в 29 км от Петропавловска-Камчатского, в городе Елизово.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Петропавловск-Камчатский (Елизово) — аэропорт федерального значения, единственный, обеспечивающий пассажирское сообщение Камчатского края с остальными субъектами Российской Федерации и странами мира. Относится к аэропортам 4-го класса, ежегодно принимает около 600 тысяч пассажиров.
 Аэропорт Елизово ведёт историю с 1942 года, когда на этом месте началось формирование 128-й смешанной авиационной дивизии во время Великой Отечественной войны. Год основания гражданского аэропорта – 1948, когда он со всеми наземными службами обеспечения полётов выделился из состава Отдельного камчатского авиаотряда. В 1957 году построена искусственная взлётно-посадочная полоса.
 Аэродром относится к аэродромам класса А, имеет одну взлетно-посадочную полосу с цементобетонным покрытием длиной длиной 3 400 м. Аэропорт сертифицирован по метеоминимуму II категории ИКАО и способен принимать самолёты и вертолёты любых типов без ограничений по грузоподъёмности вплоть до полностью загруженного Боинга 747. На территории аэродрома расположено 29 мест для стоянки самолётов, 8 из которых пригодны для стоянки сверхбольших авиалайнеров.
 31 мая 2019 года аэропорту присвоено имя Витуса Беринга.
@@ -1283,22 +1292,22 @@
     <t>158.444993</t>
   </si>
   <si>
+    <t>elizovo.webp</t>
+  </si>
+  <si>
     <t>elizovo.jpg</t>
   </si>
   <si>
-    <t>elizovo.webp</t>
-  </si>
-  <si>
     <t>Asia/Kamchatka</t>
   </si>
   <si>
     <t>https://ar-pkc.ru/board/</t>
   </si>
   <si>
-    <t>Архангельск (Талаги)</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Архангельск (Талаги) имени Ф.А. Абрамова</t>
+    <t xml:space="preserve">Архангельск (Талаги)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Архангельск (Талаги) имени Ф.А. Абрамова</t>
   </si>
   <si>
     <t>Архангельск</t>
@@ -1310,10 +1319,10 @@
     <t>https://arh.aero/</t>
   </si>
   <si>
-    <t>Международный аэропорт Архангельск (Талаги) имени Ф.А. Абрамова — аэропорт федерального значения, расположен в Талажском авиагородке, в 10 км к северо-востоку от центра города.</t>
-  </si>
-  <si>
-    <t>Аэропорт Архангельска (Талаги) открылся 5 февраля 1963 года. Аэропорт  обеспечивает авиа-воздушное сообщение города с Москвой и рядом других российских городов, а также позволяет совершать чартерные рейсы в Египет, Турцию, Европу и на юг России. Аэропорт находится в 10 километрах к северо-востоку от города; его пассажирооборот составляет 750 тысяч человек. 
+    <t xml:space="preserve">Международный аэропорт Архангельск (Талаги) имени Ф.А. Абрамова — аэропорт федерального значения, расположен в Талажском авиагородке, в 10 км к северо-востоку от центра города.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Архангельска (Талаги) открылся 5 февраля 1963 года. Аэропорт  обеспечивает авиа-воздушное сообщение города с Москвой и рядом других российских городов, а также позволяет совершать чартерные рейсы в Египет, Турцию, Европу и на юг России. Аэропорт находится в 10 километрах к северо-востоку от города; его пассажирооборот составляет 750 тысяч человек. 
 С 2009 года аэропорту разрешено принимать рейсы на лайнерах Airbus A320 и Airbus A319. В 2011 году началась масштабная реконструкция комплекса аэровокзала, в ходе которой были установлены удобные для пассажиров телескопические трапы.  
 В 2017 году аэропорт обслужил 893 400 пассажиров.
 Взлётно-посадочная полоса аэропорта длиной 2500 метров способна принимать различные типы воздушных судов, в том числе Airbus A321, Boeing 767 и другие.
@@ -1335,31 +1344,31 @@
     <t>40.719541</t>
   </si>
   <si>
+    <t>talagi.jpeg</t>
+  </si>
+  <si>
     <t>talagi.jpg</t>
   </si>
   <si>
-    <t>talagi.jpeg</t>
-  </si>
-  <si>
     <t>https://arh.aero/tablo-reysov</t>
   </si>
   <si>
     <t>Астрахань</t>
   </si>
   <si>
-    <t>Международный аэропорт Астрахань имени Б.М. Кустодиева</t>
-  </si>
-  <si>
-    <t>Астраханская область, г. Астрахань, Аэропортовский проезд, д. 1</t>
+    <t xml:space="preserve">Международный аэропорт Астрахань имени Б.М. Кустодиева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Астраханская область, г. Астрахань, Аэропортовский проезд, д. 1</t>
   </si>
   <si>
     <t>https://airportastrakhan.ru/</t>
   </si>
   <si>
-    <t>Международный аэропорт Астрахань имени Б.М. Кустодиева — аэропорт федерального значения, расположенный на южной окраине города Астрахани в 8 км южнее центра города.</t>
-  </si>
-  <si>
-    <t>Аэропорт Астрахань им. Б.М. Кустодиева является ведущим системообразующим предприятием авиатранспортного комплекса Астраханской области. Аэропорт расположен на крайнем юго-востоке европейской части России и является частью международного евро-азиатского транспортного коридора «Север - Юг».
+    <t xml:space="preserve">Международный аэропорт Астрахань имени Б.М. Кустодиева — аэропорт федерального значения, расположенный на южной окраине города Астрахани в 8 км южнее центра города.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Астрахань им. Б.М. Кустодиева является ведущим системообразующим предприятием авиатранспортного комплекса Астраханской области. Аэропорт расположен на крайнем юго-востоке европейской части России и является частью международного евро-азиатского транспортного коридора «Север - Юг».
 Астраханский аэропорт — самый благоприятный по метеоусловиям аэропорт Нижнего Поволжья и Южного региона: по статистике нелётная погода бывает здесь всего 5 дней в году. По итогам 2024 года Международный аэропорт Астрахани обслужил более 840 тысяч пассажиров.
 Аэропорт Астрахань открылся в 1945 году и до 2000-х годов носил название «Нариманово». 
 5 декабря 2018 года аэропорт получил имя Бориса Кустодиева.
@@ -1382,62 +1391,341 @@
     <t>48.010649</t>
   </si>
   <si>
+    <t>astrahany.jpg</t>
+  </si>
+  <si>
     <t>astrahany.jpeg</t>
   </si>
   <si>
-    <t>astrahany.jpg</t>
-  </si>
-  <si>
     <t>Europe/Samara</t>
   </si>
   <si>
     <t>https://airportastrakhan.ru/passengers/information/timetable/</t>
   </si>
   <si>
-    <t>Шереметьево — крупнейший российский аэропорт, расположенный в 28 км от центра Москвы и в 11 км от МКАД. Каждый год услугами аэропорта пользуется свыше 14 млн авиапутешественников. Аэропорт имеет III А категорию ИКАО, которая позволяет осуществлять полеты самолетов без ограничения по высоте и при ограниченной видимости на ВПП (не менее 200 м).
-Аэропорт имеет два сектора: Шереметьево-1 (Ш-1), обслуживающий перевозки на внутренних авиалиниях и стран СНГ, Шереметьево-2 (Ш-2), где осуществляются только международные полеты.
-12 марта 2007г. был открыт новый современный терминал С. Терминал располагается рядом с Шереметьево-1 и обслуживает регулярные и чартерные международные рейсы.
-В 2009 году первых пассажиров принял Шереметьево-3, которое соединено крыльями с Шереметьево-2 и железнодорожной станцией.</t>
-  </si>
-  <si>
-    <t>Международный аэропорт Внуково — старейшее из ныне действующих авиапредприятий московского авиационного узла и один из крупнейших авиатранспортных комплексов России. 
-Маршрутная сеть аэропорта охватывает всю территорию России, а также страны ближнего и дальнего зарубежья. В 2019 году аэропорт побил исторический рекорд и обслужил свыше 24 млн пассажиров.
-Аэродромный комплекс Внуково располагает двумя современными взлетно-посадочными полосами, длиной 3 500 и 3 060 м, аэродромная пропускная способность составляет 58 взлетно-посадочных операций в час. Аэровокзальный комплекс Внуково общей площадью около 300 тыс. кв. м способен обеспечить пропускную способность до 35 млн пассажиров в год.Аэропорт состоит из трёх пассажирских терминалов и грузового терминала «Внуково-Карго». Основной пассажирский комплекс «Внуково-1» состоит из терминалов «A», «B» и «D». Комплекс «Внуково-2» используется для обслуживания спецрейсов высших руководителей России (в том числе президента и председателя Правительства), а также руководителей других стран. Терминалы «Внуково-3» обслуживают рейсы бизнес-авиации, спецрейсов правительства Москвы и авиации Роскосмоса.
-Аэропорту присвоен третий (наивысший) уровень координации по классификации ИАТА. 23 марта 2012 года в аэропорту состоялся презентационный прилёт крупнейшего в мире пассажирского авиалайнера Airbus А380 авиакомпании Lufthansa, а 9 апреля — пассажирского самолёта Boeing 787 Dreamliner.</t>
+    <t xml:space="preserve">Волгоград (Сталинград)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Волгоград (Сталинград)</t>
+  </si>
+  <si>
+    <t>Волгоград</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Волгоградская область, г. Волгоград, шоссе Авиаторов, 161</t>
+  </si>
+  <si>
+    <t>https://airportvolgograd.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Волгоград (Сталинград) — аэропорт федерального значения, расположенный в 15 км к северо-западу от города Волгоград в микрорайоне Гумрак.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Волгоград (Сталинград), ранее известный как аэропорт Гумрак, является основным узлом воздушных перевозок для Волгограда и близлежащего региона. Расположенный примерно в 15 километрах от центра города, аэропорт является важными воротами как для внутренних, так и для международных рейсов, предлагая соединения с различными российскими городами и некоторыми международными направлениями. 
+Аэропорт создан в 1952 году на основе бывшего военного аэродрома Гумрак, существовавшего с конца 1920-х годов.
+8 мая 2018 года открыт терминал С2 внутренних авиалиний, имеющий пропускную способность 720 чел/час (до 7 млн пассажиров в год). Пропускную способность терминала международных воздушных линий - 280 чел./час.
+Аэродром располагает одной искусственной взлётно-посадочной полосой длиной 2 800 м и шириной 45 м  которая оснащена современным радиотехническим, светосигнальным и метеорологическим оборудованием по II категории ИКАО, что позволяет аэропорту работать практически в любых погодных условиях. Принимаемые типы Воздушных судов: Ан-2,12,24,26,140,148; ЯК-40,42; Ил-18,76,114; Ту-134,154,204; RRJ-95В и его модификации; А-319, 320, 321, 330 и их модификации; B-737,757 и их модификации; B-767-200/300, B-767-200ER, B-767-300ER; EMB-120RT/120ER, EMB ERJ-135-145, EMB ERJ-170-195; SAAB-2000, Foker 70; SSJ-100; CRJ-100/200, CRJ-700-1000; L-410, Hawker, Falcon, Gulfstream, ATR-42/72 типы ВС III и IV классов, вертолеты всех типов.
+29 апреля 2025 года президент России Владимир Путин подписал указ о присвоении аэропорту Волгограда исторического наименования «Сталинград».</t>
+  </si>
+  <si>
+    <t>URWW</t>
+  </si>
+  <si>
+    <t>VOG</t>
+  </si>
+  <si>
+    <t>ВГГ</t>
+  </si>
+  <si>
+    <t>48.792</t>
+  </si>
+  <si>
+    <t>44.3548</t>
+  </si>
+  <si>
+    <t>volgograd.jpg</t>
+  </si>
+  <si>
+    <t>Europe/Volgograd</t>
+  </si>
+  <si>
+    <t>https://airportvolgograd.ru/passengers/information/timetable/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минеральные Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Минеральные Воды имени М.Ю. Лермонтова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставропольский край, Минераловодский муниципальный округ, аэропорт Минеральные Воды имени М.Ю. Лермонтова, 5</t>
+  </si>
+  <si>
+    <t>https://mvairport.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Минеральные Воды имени М.Ю. Лермонтова — аэропорт федерального значения, расположенный в 4 км к западу от города Минеральные Воды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Минеральные Воды имени М.Ю. Лермонтова является крупнейшим аэропортом Ставропольского края и Северо-Кавказского федерального округа, одним из крупнейших на Юге России, работающий с 1925 года.
+Аэродром аэропорта Минеральные Воды оборудован одной из лучших взлетно-посадочных полос в России, которая имеет длину 3900 метров и ширину 60 метров, и выполнена из армобетона.
+Аэропорт является аэропортом I-го класса, оснащен самым современным аэронавигационным оборудованием, сертифицированным по I и II категориям метеоминимума ИКАО, обеспечивает круглосуточное обслуживание различных типов пассажирских и грузовых самолетов.
+14 мая 2025 года для внутренних авиалиний был открыт новый аэровокзал, способный обслужить до тысячи человек в час. Здание комплекса площадью более 28 тысяч квадратных метров и высотой 35 метров занимает 3 этажа. Терминал оснащён современными высокотехнологичными системами по обслуживанию пассажиров и багажа, 28 стойками регистрации, 6 пунктами паспортного контроля, 11 выходами на посадку, включая 5 телескопических трапов.
+С 2018 года аэропорт носит имя великого русского поэта М.Ю. Лермонтова. </t>
+  </si>
+  <si>
+    <t>URMM</t>
+  </si>
+  <si>
+    <t>MRV</t>
+  </si>
+  <si>
+    <t>МРВ</t>
+  </si>
+  <si>
+    <t>44.2181</t>
+  </si>
+  <si>
+    <t>43.0858</t>
+  </si>
+  <si>
+    <t>minvods.jpg</t>
+  </si>
+  <si>
+    <t>https://mvairport.ru/passengers/information/timetable/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Барнаул (Михайловка)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Барнаул имени Германа Степановича Титова</t>
+  </si>
+  <si>
+    <t>Барнаул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алтайский край, г. Барнаул, Павловский тракт, 226</t>
+  </si>
+  <si>
+    <t>https://airaltay.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Барнаул имени Германа Степановича Титова  — аэропорт федерального значения, расположенный в 17 км к западу от центра города Барнаула.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Барнаул им. Германа Степановича Титова (другое название – аэропорт Михайловка)  единственный международный аэропорт региона, запасной аэродром аэропорта Горно-Алтайска и аэропорта Толмачево (г. Новосибирск). Аэропорт в Барнауле принимает чартерные и регулярные рейсы внутренних и международных авиалиний и способен обслуживать почти все типы воздушных судов. Аэропорт расположен в черте города, находится рядом с Павловским трактом.
+Аэропорт имеет одну взлетно-посадочную полосу класса «В»  длинной 2 800 м и шириной 50 м. С 2001 года в аэропорту работает радиомаячная система посадки.  Аэропорт способен принимать следующие модели воздушных судов: Ан-12, Ан-24, Ан-26, Ан-28, АН-30, Ан-32, Ан-72, Ан-74, Ил-18, Ил-62, Ил-76, Ил-86, Як-40, Як-42, Ту-134, Ту-154 Б(М), Ту-204, Ту-214, А-310, А-319, А-320, Б-737, Б-757 и вертолеты всех типов.
+На аэродроме базируется Алтайское краевое государственное унитарное предприятие «Алтайские авиалинии» – отрасль малой авиации, в основном занимающаяся срочными аварийно-спасательными и поисковыми работами.
+В 2010 году руководство края постановило присвоить аэропорту Барнаул имя Героя СССР Титова Германа Степановича.</t>
+  </si>
+  <si>
+    <t>UNBB</t>
+  </si>
+  <si>
+    <t>BAX</t>
+  </si>
+  <si>
+    <t>БАН</t>
+  </si>
+  <si>
+    <t>53.3611</t>
+  </si>
+  <si>
+    <t>83.5476</t>
+  </si>
+  <si>
+    <t>altay.jpeg</t>
+  </si>
+  <si>
+    <t>Asia/Novokuznetsk</t>
+  </si>
+  <si>
+    <t>https://airaltay.ru/passengers/information/timetable/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Норильск (Алыкель)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Норильск имени Николая Урванцева</t>
+  </si>
+  <si>
+    <t>Норильск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красноярский край, г. Норильск, аэропорт Норильск (Алыкель), 1
+</t>
+  </si>
+  <si>
+    <t>https://www.airport-norilsk.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Норильск (Алыкель) имени Николая Урванцева — аэропорт федерального значения, расположенный в 35 км к западу от Норильска.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Норильск (Алыкель) единственный, имеющий статус международного в заполярных районах Сибирского федерального округа (статус международного аэропорт получил в 2023 году). Расположен в арктических широтах (69° 19' с. ш.), на севере Красноярского края, в южной части полуострова Таймыр, в 7 км к югу от посёлка Алыкель, на пересечении транссибирской и трансатлантической воздушных магистралей (за сутки в небе над Норильском диспетчеры фиксируют до 80 воздушных судов). Пассажирооборот в 2024 году 883 149 чел. 
+В 2019 году аэропорт Норильск занял 2-е место, получив Национальную премию «Воздушные ворота России» в номинации «Лучший аэропорт с пассажиропотоком до 500 тыс. в год», а также 3-е место в конкурсе «Транспортная безопасность России».
+Международный аэропорт Норильск является аэропортом 5-го класса (технически способен обслуживать от 100 тыс. до 1 млн пассажиров в год), с аэродромом класса «Б». Аэродром располагает одной искусственной взлётно-посадочной полосой с армированным бетонным покрытием длиной 2 821 м и шириной 45 м. Аэропорт способен принимать следующие модели воздушных судов: Ан-12, Ан-24, Ан-26, Ан-72, Ан-74, Ил-62, Ил-76, Ту-134, Ту-154, Ту-204, Ту-214, Як-40, Як-42, Airbus A300, Airbus A319, Airbus A320, Boeing 737-300(-400,-500,-700,-800), Boeing 757-200, Sukhoi Superjet 100 и более лёгкие, вертолёты всех типов.
+Аэровокзал оборудован двумя телескопическими трапами пьедестального типа, которые подходят не ко всем типам воздушных судов, так как не регулируются по высоте. Аэропорт нередко бывает закрыт из-за неблагоприятных метеоусловий: сильного бокового ветра, снежных заносов, обледенения взлётно-посадочной полосы, ограниченной видимости, летом из-за тумана.
+5 декабря 2018 года аэропорту присвоено имя Николая Николаевича Урванцева — исследователя Арктики, автора карты Таймыра.</t>
+  </si>
+  <si>
+    <t>UOOO</t>
+  </si>
+  <si>
+    <t>NSK</t>
+  </si>
+  <si>
+    <t>НОР</t>
+  </si>
+  <si>
+    <t>69.3231</t>
+  </si>
+  <si>
+    <t>87.3398</t>
+  </si>
+  <si>
+    <t>norilsk.jpeg</t>
+  </si>
+  <si>
+    <t>norilsk.jpg</t>
+  </si>
+  <si>
+    <t>Абакан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Абакан имени генерала В.Г. Тихонова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Хакасия, г. Абакан, проспект Дружбы народов, 59</t>
+  </si>
+  <si>
+    <t>https://airportabakan.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Абакан имени генерала В.Г. Тихонова — аэропорт федерального значения, расположенный в столице Республики Хакасия (г. Абакан), в северной части города.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Абакан единственный аэропорт в регионе (Хакасия и юг Красноярского края). История воздушной гавани отсчитывается с появления в 1938 году в Хакасии аэродрома имени Калинина.
+В 1999 и 2000 годах аэропорт Абакан был удостоен награды за победу в конкурсе, проводимом ассоциацией «Аэропорт» в номинации «Лучший аэропорт года стран СНГ».
+В 2021 году международному аэропорту Абакан было присвоено имя Василия Гавриловича Тихонова, лётчика-орденоносца, участника Великой Отечественной войны, уроженца Хакасии.
+Взлётно-посадочное поле аэродрома относится к категории класса Б и имеет статус международного аэропорта 2-го типа. Взлётно-посадочная полоса аэродрома с искусственным покрытием имеет длину 3250 метров и способна принимать следующие модели воздушных судов: Boeing 757 и 737 Airbus А-319, А-320 и А-321, В-757, В-737,  Ту-204, Ту-214, Ил-62, Ил-86, Ил-96, Ан-124, Ил-76ТД и классом ниже с максимальной взлётной массой до 392 тонн, а также вертолёты всех типов.
+Аэропорт располагает одним двухэтажным терминалом. Выходы к самолётам для внутренних рейсов находятся в правом крыле аэровокзала, для международных — в левом. Аэровокзал имеет пропускную способность: 400 чел./час, в 2024 году аэропорт обслужил более 400 тыс. пассажиров.</t>
+  </si>
+  <si>
+    <t>UNAA</t>
+  </si>
+  <si>
+    <t>ABA</t>
+  </si>
+  <si>
+    <t>АБН</t>
+  </si>
+  <si>
+    <t>53.742331</t>
+  </si>
+  <si>
+    <t>91.409154</t>
+  </si>
+  <si>
+    <t>abacan.jpg</t>
+  </si>
+  <si>
+    <t>abacan.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владикавказ (Беслан)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Владикавказ (Беслан)</t>
+  </si>
+  <si>
+    <t>Беслан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Северная Осетия — Алания, Правобережный район, ул. Аэропорт, 1</t>
+  </si>
+  <si>
+    <t>https://vladikavkazaero.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Владикавказ (Беслан) — аэропорт федерального значения, расположен в 7 км от города Беслана, в 26 км от Владикавказа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Владикавказ (Беслан) единственный аэропорт Республики Северная Осетия — Алания. Является самой близкой точкой для организации воздушной связи с Закавказьем, а также со странами южного направления – Турцией, ОАЭ, Саудовской Аравией, Ираком. Расстояние до государственной границы с Грузией составляет 55 км. Благодаря своему выгодному расположению и наличию удобных рейсов аэропорт Владикавказ традиционно обслуживает значительное количество пассажиров не только из Северной Осетии, но также из близлежащих регионов – Республики Южная Осетия, Ингушетии, Кабардино-Балкарии, Чечни.
+Аэропорт располагает одной асфальтобетонной взлетно-посадочной полосой класса «В». Ее общая длина составляет 3000 м, ширина – 45 м. Она отвечает требованиям ИКАО к аэродромам I категории кода 4D и позволяет принимать все основные типы воздушных судов без ограничения максимальной взлётной массы. Взлетно-посадочная полоса оборудована инструментальной системой посадки (ILS) в обоих направлениях и навигационной системой захода на посадку.
+В аэропорту действует два пассажирских терминала внутренних воздушных линий и международных воздушных линий. Аэровокзальный комплекс аэропорта способен обслуживать 320 пассажиров в час на внутренних авиалиниях и 180 – на международных.</t>
+  </si>
+  <si>
+    <t>URMO</t>
+  </si>
+  <si>
+    <t>OGZ</t>
+  </si>
+  <si>
+    <t>ВЛА</t>
+  </si>
+  <si>
+    <t>43.201696</t>
+  </si>
+  <si>
+    <t>44.60323</t>
+  </si>
+  <si>
+    <t>vladikavkaz.jpeg</t>
+  </si>
+  <si>
+    <t>vladikavkaz.jpg</t>
+  </si>
+  <si>
+    <t>https://vladikavkazaero.ru/passengers/information/timetable/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1449,18 +1737,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor theme="0" tint="0"/>
+        <bgColor theme="0" tint="0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -1475,7 +1763,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -1484,42 +1772,52 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1533,15 +1831,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -1744,37 +2322,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1"/>
-    <col min="2" max="2" width="21.453125"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
-    <col min="4" max="4" width="45.90625" bestFit="1"/>
-    <col min="5" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" bestFit="1"/>
-    <col min="12" max="12" width="10.36328125" customWidth="1"/>
-    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="55" bestFit="1" customWidth="1"/>
+    <col bestFit="1" min="1" max="1" width="21.44140625"/>
+    <col min="2" max="2" width="21.44140625"/>
+    <col customWidth="1" min="3" max="3" width="17.33203125"/>
+    <col bestFit="1" min="4" max="4" width="45.88671875"/>
+    <col customWidth="1" min="5" max="6" width="25.44140625"/>
+    <col customWidth="1" min="7" max="7" width="19.109375"/>
+    <col bestFit="1" min="10" max="10" width="12.77734375"/>
+    <col customWidth="1" min="12" max="12" width="10.33203125"/>
+    <col bestFit="1" customWidth="1" min="13" max="13" width="14.6640625"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="16.77734375"/>
+    <col bestFit="1" customWidth="1" min="15" max="15" width="14.33203125"/>
+    <col bestFit="1" customWidth="1" min="16" max="16" width="55.00390625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +2399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1844,1497 +2419,1812 @@
         <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>424</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>425</v>
+        <v>37</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="3" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="3" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" s="3" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1">
+      <c r="A10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="14.25">
+      <c r="A11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="14.25">
+      <c r="A12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="14.25">
+      <c r="A13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="14.25">
+      <c r="A14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="14.25">
+      <c r="A15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="14.25">
+      <c r="A16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="14.25">
+      <c r="A17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="14.25">
+      <c r="A18" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="14.25">
+      <c r="A19" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>127</v>
+      <c r="P19" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>142</v>
+    <row r="20" s="3" customFormat="1" ht="14.25">
+      <c r="A20" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M11" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" t="s">
-        <v>155</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>156</v>
+    <row r="21" s="3" customFormat="1" ht="14.25">
+      <c r="A21" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M12" t="s">
-        <v>168</v>
-      </c>
-      <c r="N12" t="s">
-        <v>168</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>169</v>
+    <row r="22" s="3" customFormat="1" ht="14.25">
+      <c r="A22" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M13" t="s">
-        <v>181</v>
-      </c>
-      <c r="N13" t="s">
-        <v>181</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>182</v>
+    <row r="23" s="3" customFormat="1" ht="14.25">
+      <c r="A23" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M14" t="s">
-        <v>195</v>
-      </c>
-      <c r="N14" t="s">
-        <v>195</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>197</v>
+    <row r="24" s="3" customFormat="1" ht="14.25">
+      <c r="A24" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M15" t="s">
-        <v>210</v>
-      </c>
-      <c r="N15" t="s">
-        <v>210</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>211</v>
+    <row r="25" s="3" customFormat="1" ht="14.25">
+      <c r="A25" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="M16" t="s">
-        <v>223</v>
-      </c>
-      <c r="N16" t="s">
-        <v>223</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>224</v>
+    <row r="26" s="3" customFormat="1" ht="14.25">
+      <c r="A26" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="M17" t="s">
-        <v>237</v>
-      </c>
-      <c r="N17" t="s">
-        <v>237</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>238</v>
+    <row r="27" s="3" customFormat="1" ht="14.25">
+      <c r="A27" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="M18" t="s">
-        <v>251</v>
-      </c>
-      <c r="N18" t="s">
-        <v>251</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>252</v>
+    <row r="28" ht="14.25">
+      <c r="A28" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="M19" t="s">
-        <v>264</v>
-      </c>
-      <c r="N19" t="s">
-        <v>264</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>265</v>
+    <row r="29" ht="15">
+      <c r="A29" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="L29" t="s">
+        <v>408</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M20" t="s">
-        <v>278</v>
-      </c>
-      <c r="N20" t="s">
-        <v>278</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>280</v>
+    <row r="30" ht="14.25">
+      <c r="A30" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="M21" t="s">
-        <v>293</v>
-      </c>
-      <c r="N21" t="s">
-        <v>293</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>294</v>
+    <row r="31" ht="14.25">
+      <c r="A31" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="M22" t="s">
-        <v>307</v>
-      </c>
-      <c r="N22" t="s">
-        <v>308</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>309</v>
+    <row r="32" ht="14.25">
+      <c r="A32" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>454</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="M23" t="s">
-        <v>321</v>
-      </c>
-      <c r="N23" t="s">
-        <v>321</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>322</v>
+    <row r="33" ht="14.25">
+      <c r="A33" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="M24" t="s">
-        <v>334</v>
-      </c>
-      <c r="N24" t="s">
-        <v>334</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>326</v>
+    <row r="34" ht="14.25">
+      <c r="A34" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="M25" t="s">
-        <v>347</v>
-      </c>
-      <c r="N25" t="s">
-        <v>347</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>349</v>
+    <row r="35" ht="14.25">
+      <c r="A35" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="M35" t="s">
+        <v>495</v>
+      </c>
+      <c r="N35" t="s">
+        <v>496</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>487</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="M26" t="s">
-        <v>361</v>
-      </c>
-      <c r="N26" t="s">
-        <v>361</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>353</v>
+    <row r="36" ht="14.25">
+      <c r="A36" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="M36" t="s">
+        <v>509</v>
+      </c>
+      <c r="N36" t="s">
+        <v>510</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>511</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="M27" t="s">
-        <v>375</v>
-      </c>
-      <c r="N27" t="s">
-        <v>375</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="M28" t="s">
-        <v>390</v>
-      </c>
-      <c r="N28" t="s">
-        <v>391</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="L29" t="s">
-        <v>405</v>
-      </c>
-      <c r="M29" t="s">
-        <v>406</v>
-      </c>
-      <c r="N29" t="s">
-        <v>407</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M30" t="s">
-        <v>420</v>
-      </c>
-      <c r="N30" t="s">
-        <v>421</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B32" s="10"/>
-    </row>
+    <row r="38" ht="14.25"/>
+    <row r="39" ht="14.25"/>
+    <row r="41" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:P29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P29"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="P6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="P11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="P12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="P13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B14" r:id="rId18" tooltip="https://ru.wikipedia.org/wiki/%D0%95%D0%BB%D0%B8%D0%B7%D0%B0%D0%B2%D0%B5%D1%82%D0%B0_%D0%9F%D0%B5%D1%82%D1%80%D0%BE%D0%B2%D0%BD%D0%B0" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="P14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="P15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="P16" r:id="rId24" location="tablo" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="P17" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="P18" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="P19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E20" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="P20" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E21" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="P21" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E22" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="P22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E23" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="P23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="P24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E25" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="P25" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E26" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="P26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E27" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="P27" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E28" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="P28" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B29" r:id="rId49" tooltip="Абрамов, Фёдор Александрович" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="P29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E30" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="P30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="P2"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
+    <hyperlink r:id="rId5" ref="P5"/>
+    <hyperlink r:id="rId6" ref="E6"/>
+    <hyperlink r:id="rId7" ref="P6"/>
+    <hyperlink r:id="rId8" ref="E7"/>
+    <hyperlink r:id="rId9" ref="E8"/>
+    <hyperlink r:id="rId10" ref="E9"/>
+    <hyperlink r:id="rId11" ref="E10"/>
+    <hyperlink r:id="rId12" ref="E11"/>
+    <hyperlink r:id="rId13" ref="P11"/>
+    <hyperlink r:id="rId14" ref="E12"/>
+    <hyperlink r:id="rId15" ref="P12"/>
+    <hyperlink r:id="rId16" ref="E13"/>
+    <hyperlink r:id="rId17" ref="P13"/>
+    <hyperlink r:id="rId18" ref="B14" tooltip="https://ru.wikipedia.org/wiki/%D0%95%D0%BB%D0%B8%D0%B7%D0%B0%D0%B2%D0%B5%D1%82%D0%B0_%D0%9F%D0%B5%D1%82%D1%80%D0%BE%D0%B2%D0%BD%D0%B0"/>
+    <hyperlink r:id="rId19" ref="E14"/>
+    <hyperlink r:id="rId20" ref="P14"/>
+    <hyperlink r:id="rId21" ref="E15"/>
+    <hyperlink r:id="rId22" ref="P15"/>
+    <hyperlink r:id="rId23" ref="E16"/>
+    <hyperlink r:id="rId24" ref="P16"/>
+    <hyperlink r:id="rId25" ref="E17"/>
+    <hyperlink r:id="rId26" ref="P17"/>
+    <hyperlink r:id="rId27" ref="E18"/>
+    <hyperlink r:id="rId28" ref="P18"/>
+    <hyperlink r:id="rId29" ref="E19"/>
+    <hyperlink r:id="rId30" ref="P19"/>
+    <hyperlink r:id="rId31" ref="E20"/>
+    <hyperlink r:id="rId32" ref="P20"/>
+    <hyperlink r:id="rId33" ref="E21"/>
+    <hyperlink r:id="rId34" ref="P21"/>
+    <hyperlink r:id="rId35" ref="E22"/>
+    <hyperlink r:id="rId36" ref="P22"/>
+    <hyperlink r:id="rId37" ref="E23"/>
+    <hyperlink r:id="rId38" ref="P23"/>
+    <hyperlink r:id="rId39" ref="E24"/>
+    <hyperlink r:id="rId39" ref="P24"/>
+    <hyperlink r:id="rId40" ref="E25"/>
+    <hyperlink r:id="rId41" ref="P25"/>
+    <hyperlink r:id="rId42" ref="E26"/>
+    <hyperlink r:id="rId42" ref="P26"/>
+    <hyperlink r:id="rId43" ref="E27"/>
+    <hyperlink r:id="rId44" ref="P27"/>
+    <hyperlink r:id="rId45" ref="E28"/>
+    <hyperlink r:id="rId46" ref="P28"/>
+    <hyperlink r:id="rId47" ref="B29" tooltip="Абрамов, Фёдор Александрович"/>
+    <hyperlink r:id="rId48" ref="E29"/>
+    <hyperlink r:id="rId49" ref="P29"/>
+    <hyperlink r:id="rId50" ref="E30"/>
+    <hyperlink r:id="rId51" ref="P30"/>
+    <hyperlink r:id="rId52" ref="E31"/>
+    <hyperlink r:id="rId53" ref="P31"/>
+    <hyperlink r:id="rId54" ref="E32"/>
+    <hyperlink r:id="rId55" ref="P32"/>
+    <hyperlink r:id="rId56" ref="E33"/>
+    <hyperlink r:id="rId57" ref="F33" tooltip="Барнаул"/>
+    <hyperlink r:id="rId58" ref="P33"/>
+    <hyperlink r:id="rId59" ref="E34"/>
+    <hyperlink r:id="rId59" ref="P34"/>
+    <hyperlink r:id="rId60" ref="E35"/>
+    <hyperlink r:id="rId60" ref="P35"/>
+    <hyperlink r:id="rId61" ref="E36"/>
+    <hyperlink r:id="rId62" ref="P36"/>
   </hyperlinks>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/air_bd.xlsx
+++ b/data/air_bd.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="581">
   <si>
     <t>name</t>
   </si>
@@ -1678,6 +1678,230 @@
   </si>
   <si>
     <t>https://vladikavkazaero.ru/passengers/information/timetable/</t>
+  </si>
+  <si>
+    <t>Ханты-Мансийск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Ханты-Мансийск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ханты-Мансийский автономный округ — Югра, г. Ханты-Мансийск, Аэропорт</t>
+  </si>
+  <si>
+    <t>https://ugraavia.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Ханты-Мансийск  — аэропорт федерального значения, расположен в черте города Ханты-Мансийск, в 5 км от его центра.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Ханты-Мансийск обслуживает как сам Ханты-Мансийск, так прилежащие к нему районы Ханты-Мансийского автономного округа с общим постоянным населением более 150 тыс. жителей. Аэропорт занимает в стране 52-е место по пассажирообороту (0,523 млн пассажиров в 2024 году).
+Свою историю аэропорт ведёт с образования в 1940 году аэропорта Самарово для базирования Обского отдельного авиационного отряда. В 1950 году районный центр Ханты-Мансийск преобразован в г. Ханты-Мансийск — центр Ханты-Мансийского автономного округа, с включением в черту города села Самарово. В 1956 году аэропорт Самарово был переименован в аэропорт «Ханты-Мансийск». Аэропорт тех лет представлял собой в зимнее время подготовленную площадку для взлёта и посадки на левом берегу Иртыша (способную принимать самолёты По-2, Ан-2, Ли-2, вертолёты Ми-1, Ми-4), а в летнее время гидросамолёты производили полёты прямо с акватории реки Иртыш. В 1967 году в связи с разработкой открытых нефтяных и газовых месторождений Ханты-Мансийского автономного округа принято решение о строительстве в городе Ханты-Мансийске, в северной его части, нового аэропорта. В 1973-м аэропорт «Ханты-Мансийск» был сдан в эксплуатацию и мог принимать самолёты Ан-24 и Як-40 на искусственную ВПП.
+В начале 1997 года была сдана в эксплуатацию новая взлётно-посадочная полоса длиной в 2800 метров, шириной в 45 метров, и в качестве покрытия данной ВПП используется асфальтобетонная составляющая. Она имеет возможность принимать самолеты 2, 3 и 4 классов: Ан-26, Ту-134. Boeing 737, Airbus A320 и другие, более лёгкие воздушные суда, а также все типы вертолётов.
+В 2001 года введён в эксплуатацию новый аэровокзальный комплекс, построенный по проекту орловского аэропорта «Южный».
+Статус международного аэропорта «Ханты-Мансийск» получил в 2004 году.</t>
+  </si>
+  <si>
+    <t>USHH</t>
+  </si>
+  <si>
+    <t>HMA</t>
+  </si>
+  <si>
+    <t>НЖВ</t>
+  </si>
+  <si>
+    <t>61.0261 </t>
+  </si>
+  <si>
+    <t>69.0971</t>
+  </si>
+  <si>
+    <t>ugra.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новокузнецк (Спиченково)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Новокузнецк имени Б.В. Волынова</t>
+  </si>
+  <si>
+    <t>Новокузнецк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кемеровская область — Кузбасс, Новокузнецкий городской округ, Аэропортовая улица, 1, корп. 2</t>
+  </si>
+  <si>
+    <t>http://www.aerokuz.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Новокузнецк им. Б.В. Волынова  — аэропорт федерального значения, расположен на северо-западе города Новокузнецка, в 24 км от центра города.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Новокузнецк (ранее — Спиченково) один из двух аэропортов Кемеровской области, входит в число 50 наиболее загруженных аэропортов в России по объёму пассажиропотока. Лучший аэропорт России 2025 года среди авиагаваней с пассажиропотоком до 1 млн. человек.
+Одним из ключевых преимуществ аэропорта является его стратегическое расположение. Он обслуживает не только Новокузнецк, но и всю южную агломерацию Кемеровской области. Для многих путешественников это самый удобный способ добраться до знаменитого горнолыжного курорта Шерегеш, который находится примерно в 160 км от аэропорта. В зимний сезон для удобства туристов часто организуются специальные трансферы, что делает поездку на склоны максимально простой и быстрой.
+Аэропорт имеет одну взлётно-посадочную полосу с искусственным железобетонным покрытием длиной в 2679 метров, шириной в 45 метров. Аэропорт является аэродромом класса В, способным принять следующие типы воздушных судов: Ан-12, Ан-24, Ан-26, Ил-76, Ил-114, Л-410, Ту-134, Ту-154, Ту-204, Ту-214, Як-40, Як-42, Airbus A319, Airbus A320, Airbus A321, ATR 42, BAe-125-700, Boeing 737-300(-400,-500,-600,-700,-800), Boeing 757-200, Boeing 767-300, Bombardier CRJ 200, Sukhoi Superjet 100, Cessna 208 и более лёгкие, вертолёты всех типов.
+В ноябре 2023 года аэропорт Новокузнецк открыл единственный в России удаленный багажный терминал в Шерегеше.
+25 февраля 2025 года открыт новый пассажирский терминал площадью 19,5 тыс. кв.м на 580 пассажиров в час с 5 выходами на посадку и 3 телетрапами. В аэровокзале применена уникальная система обработки горнолыжного снаряжения, так как в сезон около 50% обслуживаемого багажа - лыжи и сноуборды.
+26 мая 2021 года Указом Президента Российской Федерации международному аэропорту Новокузнецк (Спиченково) присвоено имя лётчика-космонавта, дважды Героя Советского Союза, Героя Кузбасса Б.В. Волынова.</t>
+  </si>
+  <si>
+    <t>UNWW</t>
+  </si>
+  <si>
+    <t>NOZ</t>
+  </si>
+  <si>
+    <t>НВК</t>
+  </si>
+  <si>
+    <t>53.8029986</t>
+  </si>
+  <si>
+    <t>86.860378</t>
+  </si>
+  <si>
+    <t>nkuzneck.webp</t>
+  </si>
+  <si>
+    <t>nkuzneck.jpg</t>
+  </si>
+  <si>
+    <t>https://deck.aerokuz.ru/display_app/noz/index.html?mac=00-00-00-00-00-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большое Савино</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Пермь (Большое Савино)</t>
+  </si>
+  <si>
+    <t>Пермь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пермский край, Пермский район, тер. Шоссе Космонавтов, д. 455, Аэропорт Большое Савино, корпус 12</t>
+  </si>
+  <si>
+    <t>https://aviaperm.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Пермь (аэропорт Большое Савино) — аэропорт федерального значения, расположен возле деревни Большое Савино, в 17 км к юго-западу от центра города Пермь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Пермь (аэропорт Большое Савино) является единственным аэропортом Перми и Пермского края с регулярными коммерческими рейсами, и служит основным гражданским аэропортом Перми. Через аэропорт осуществляются регулярные и чартерные рейсы по почти 40 направлениям. Площадь аэровокзального комплекса – около 30 тыс. м², может обслуживать до 2 млн пассажиров в год, или 904 пассажира в час. Пассажирооборот аэропорта превышает 1,319 млн. человек, в 2023 году пассажирооборот составил 1,993 млн. человек (21-е место среди аэропортов России и 4-е место среди аэропортов ПФО после Казанского, Уфимского и Самарского). 
+В ноябре 2017 года было завершено строительство нового аэровокзального комплекса. В новом терминале предусмотрено 3 переходных галереи,  5 телетрапов, 19 регистрационных стоек и специальная стойка для пассажиров с негабаритным багажом. 
+Аэропорт Пермь имеет аэродром класса «Б» с минимальным оптимальным уровнем «С» сервиса для пассажиров (по версии Международной ассоциации воздушного транспорта – International Air Transport Association). Для взлёта и посадки воздушные суда используют одну искусственную взлётно-посадочную полосу с армированным бетонным покрытием длиной 3204 м и шириной 49 м, это позволяет аэропорту принимать воздушные суда всех типов.</t>
+  </si>
+  <si>
+    <t>USPP</t>
+  </si>
+  <si>
+    <t>PEE</t>
+  </si>
+  <si>
+    <t>ПРЬ</t>
+  </si>
+  <si>
+    <t>57.92</t>
+  </si>
+  <si>
+    <t>56.0192</t>
+  </si>
+  <si>
+    <t>perm.webp</t>
+  </si>
+  <si>
+    <t>perm.jpg</t>
+  </si>
+  <si>
+    <t>https://aviaperm.ru/passengers/information/timetable/</t>
+  </si>
+  <si>
+    <t>Белгород</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный  аэропорт Белгород имени В.Г. Шухова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белгородская область, г. Белгород, проспект Б.Хмельницкого, 166</t>
+  </si>
+  <si>
+    <t>https://belgorodavia.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный  аэропорт Белгород имени В.Г. Шухова — аэропорт федерального значения, расположенный в 4 км к северу от Белгорода.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Белгород благодаря выгодному расположению и наличию разветвленной маршрутной сети обслуживает не только пассажиров из Белгородской области, но также из близлежащих регионов. Аэропорт был основан в 1954 году, в 1995 году аэропорту был присвоен статус международного аэропорта.
+Аэропорт имеет одну ВПП с искусственным асфальтобетонным покрытием длиной 2 500 и шириной 45 метра. Максимальная взлетная масса воздушного судна составляет 190 тонн. Аэропорт может принимать все узкофюзеляжные и некоторые широкофюзеляжные самолёты, а также все без исключения типы вертолетов. При максимальной загруженности аэропорт может осуществлять до 16 взлетно-посадочных операций в час.
+Аэропорт Белгорода располагает одним пассажирским терминалом. Аэровокзальный комплекс аэропорта Белгород способен обслуживать до 450 пассажиров в час: 300 на внутренних рейсах и 150 на международных.
+31 мая 2019 года указом президент России международному аэропорту Белгород присвоено имя выдающегося инженера Владимира Григорьевича Шухова.</t>
+  </si>
+  <si>
+    <t>UUOB</t>
+  </si>
+  <si>
+    <t>EGO</t>
+  </si>
+  <si>
+    <t>БЕД</t>
+  </si>
+  <si>
+    <t>50.643972</t>
+  </si>
+  <si>
+    <t>36.575876</t>
+  </si>
+  <si>
+    <t>belgorod.jpg</t>
+  </si>
+  <si>
+    <t>belgorod.jpeg</t>
+  </si>
+  <si>
+    <t>https://belgorodavia.ru/passengers/information/timetable/</t>
+  </si>
+  <si>
+    <t>Кемерово</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Кемерово имени А.А. Леонова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кемеровская область, г. Кемерово, ул. Аэропорт, 1</t>
+  </si>
+  <si>
+    <t>https://airkem.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международный аэропорт Кемерово имени А.А. Леонова — аэропорт федерального значения, расположенный черте Кемерово, в 8 км к югу от его центра.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аэропорт Кемерово является одним из 2 крупных аэропортов в Кемеровской области и представляет собой современные воздушные ворота Кузбасса.
+Аэровокзальный комплекс имеет одну взлетно-посадочную полосу с искусственным покрытием класса «Б», выполненную из цементобетона длинной 3200  и шириной 60 метров. Принимаемые воздушные суда: DC-10, А319, А320, А321, А310, А330, B737, В747, В757, В767, Ил-96, Ил-86, Ил-76, Ил-62М, Ил-18, Ту-214, Ту-204, Ту-154, Ту-134, Ан-124, Ан-74, Ан-30, Ан-26, Ан-24, Ан-12, Як-42, Як-40, ATR-42, ВАе-146, ВАе-125 и модификациями этих типов ВС, а также другие типы ВС III и IV классов, вертолёты всех типов.
+23 мая 2021 года был открыт новый терминал площадью 39 000 м², в том числе 11 635 м² — терминал внутренних воздушных линий. Проектная пропускная способность терминала составляет около 460 пассажиров в час. Внутри терминал выполнен в космическом стиле. Потолок за счёт освещения напоминает звёздное небо, смонтировано около 5 тыс. ламп. Также в здании установлен макет космического корабля «Восход-2».
+В декабре 2012 года «Международный аэропорт Кемерово» переименован в «Международный Аэропорт Кемерово имени Алексея Архиповича Леонова».</t>
+  </si>
+  <si>
+    <t>UNEE</t>
+  </si>
+  <si>
+    <t>KEJ</t>
+  </si>
+  <si>
+    <t>КРВ</t>
+  </si>
+  <si>
+    <t>55.2806</t>
+  </si>
+  <si>
+    <t>86.1162</t>
+  </si>
+  <si>
+    <t>kemerovo.jpg</t>
+  </si>
+  <si>
+    <t>https://airkem.ru/passengers/information/timetable/</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1948,6 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -1781,7 +2004,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1819,6 +2042,9 @@
     </xf>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2328,7 +2554,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
@@ -4149,9 +4375,256 @@
         <v>511</v>
       </c>
     </row>
-    <row r="38" ht="14.25"/>
-    <row r="39" ht="14.25"/>
-    <row r="41" ht="14.25"/>
+    <row r="37" ht="14.25">
+      <c r="A37" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="M37" t="s">
+        <v>523</v>
+      </c>
+      <c r="N37" t="s">
+        <v>523</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="M38" t="s">
+        <v>536</v>
+      </c>
+      <c r="N38" t="s">
+        <v>537</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="M39" t="s">
+        <v>551</v>
+      </c>
+      <c r="N39" t="s">
+        <v>552</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="M40" t="s">
+        <v>565</v>
+      </c>
+      <c r="N40" t="s">
+        <v>566</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" t="s">
+        <v>570</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="M41" t="s">
+        <v>579</v>
+      </c>
+      <c r="N41" t="s">
+        <v>579</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P29"/>
   <hyperlinks>
@@ -4221,6 +4694,16 @@
     <hyperlink r:id="rId60" ref="P35"/>
     <hyperlink r:id="rId61" ref="E36"/>
     <hyperlink r:id="rId62" ref="P36"/>
+    <hyperlink r:id="rId63" ref="E37"/>
+    <hyperlink r:id="rId63" ref="P37"/>
+    <hyperlink r:id="rId64" ref="E38"/>
+    <hyperlink r:id="rId65" ref="P38"/>
+    <hyperlink r:id="rId66" ref="E39"/>
+    <hyperlink r:id="rId67" ref="P39"/>
+    <hyperlink r:id="rId68" ref="E40"/>
+    <hyperlink r:id="rId69" ref="P40"/>
+    <hyperlink r:id="rId70" ref="E41"/>
+    <hyperlink r:id="rId71" ref="P41"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
